--- a/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CF9754-8417-4FA1-920A-F7B0AB644986}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF6343-43BE-4E74-A631-55D959824E92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2430,7 +2430,7 @@
   </sheetPr>
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E106"/>
     </sheetView>
   </sheetViews>
@@ -2484,11 +2484,11 @@
         <v>0.16564654600000001</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D3:D34" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E3:E34" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2528,11 +2528,11 @@
         <v>0.190709198</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2572,11 +2572,11 @@
         <v>0.21</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2616,11 +2616,11 @@
         <v>0.22009848399999998</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2660,11 +2660,11 @@
         <v>0.23085095799999999</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2704,11 +2704,11 @@
         <v>0.24</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2748,11 +2748,11 @@
         <v>0.240850958</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2792,11 +2792,11 @@
         <v>0.34</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2836,11 +2836,11 @@
         <v>0.342187662</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-III</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2880,11 +2880,11 @@
         <v>0.91</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2924,11 +2924,11 @@
         <v>0.995927067</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -2968,11 +2968,11 @@
         <v>0.99592706799999997</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -3012,11 +3012,11 @@
         <v>1.44</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -3056,11 +3056,11 @@
         <v>1.545093896</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -3100,11 +3100,11 @@
         <v>1.812946862</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -3144,11 +3144,11 @@
         <v>1.96</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3188,11 +3188,11 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3232,11 +3232,11 @@
         <v>2.5196520410000001</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+0</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3276,11 +3276,11 @@
         <v>3.01</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3320,11 +3320,11 @@
         <v>3.313767881</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3364,11 +3364,11 @@
         <v>3.327915993</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3408,11 +3408,11 @@
         <v>3.54</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3452,11 +3452,11 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3496,11 +3496,11 @@
         <v>4.3705976250000003</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3540,11 +3540,11 @@
         <v>4.58</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3584,11 +3584,11 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3628,11 +3628,11 @@
         <v>5.64</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3672,11 +3672,11 @@
         <v>5.6951114260000004</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3716,11 +3716,11 @@
         <v>6.24</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3760,11 +3760,11 @@
         <v>6.84</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3804,11 +3804,11 @@
         <v>7.41</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3848,11 +3848,11 @@
         <v>7.94</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>-II</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3892,11 +3892,11 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D35:D66" si="2">IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E35:E66" si="3">IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3936,11 +3936,11 @@
         <v>8.2464557510000009</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -3980,11 +3980,11 @@
         <v>8.2505978840000012</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-I</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -4024,11 +4024,11 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-I</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -4068,11 +4068,11 @@
         <v>8.91</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-I</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -4112,11 +4112,11 @@
         <v>8.9463643600000005</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-I</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -4156,11 +4156,11 @@
         <v>9.2968308060000009</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4200,11 +4200,11 @@
         <v>9.296830807000001</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4244,11 +4244,11 @@
         <v>9.34</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4288,11 +4288,11 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4332,11 +4332,11 @@
         <v>9.64</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4376,11 +4376,11 @@
         <v>9.76</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4420,11 +4420,11 @@
         <v>9.7975727730000006</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4464,11 +4464,11 @@
         <v>9.7975727740000007</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4508,11 +4508,11 @@
         <v>10.01</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4552,11 +4552,11 @@
         <v>10.59</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4596,11 +4596,11 @@
         <v>11.11</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4640,11 +4640,11 @@
         <v>11.64</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4684,11 +4684,11 @@
         <v>12.16</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4728,11 +4728,11 @@
         <v>12.69</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4772,11 +4772,11 @@
         <v>13.19</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4816,11 +4816,11 @@
         <v>13.197809816000001</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -4860,11 +4860,11 @@
         <v>13.197809817000001</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -4904,11 +4904,11 @@
         <v>13.46</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -4948,11 +4948,11 @@
         <v>13.84</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -4992,11 +4992,11 @@
         <v>14.06</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -5036,11 +5036,11 @@
         <v>14.104461709000001</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -5080,11 +5080,11 @@
         <v>14.104461710000001</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -5124,11 +5124,11 @@
         <v>14.19</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -5168,11 +5168,11 @@
         <v>14.49</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5212,11 +5212,11 @@
         <v>15.02</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5256,11 +5256,11 @@
         <v>15.54</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5300,11 +5300,11 @@
         <v>16.059999999999999</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D67:D98" si="4">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E67:E98" si="5">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5344,11 +5344,11 @@
         <v>16.59</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-II</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-II</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5388,11 +5388,11 @@
         <v>16.652344551000002</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f>IF(COUNTIF(F69:L69,"D")&gt;0,"D",IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-II</v>
       </c>
       <c r="E69" s="23" t="str">
-        <f>IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-II</v>
       </c>
       <c r="F69" s="9" t="str">
@@ -5432,11 +5432,11 @@
         <v>16.656083170000002</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f>IF(COUNTIF(F70:L70,"D")&gt;0,"D",IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-II</v>
       </c>
       <c r="E70" s="23" t="str">
-        <f>IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-II</v>
       </c>
       <c r="F70" s="9" t="str">
@@ -5476,11 +5476,11 @@
         <v>17.11</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f>IF(COUNTIF(F71:L71,"D")&gt;0,"D",IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+0</v>
       </c>
       <c r="E71" s="23" t="str">
-        <f>IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+0</v>
       </c>
       <c r="F71" s="9" t="str">
@@ -5520,11 +5520,11 @@
         <v>17.155520158000002</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f>IF(COUNTIF(F72:L72,"D")&gt;0,"D",IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+0</v>
       </c>
       <c r="E72" s="23" t="str">
-        <f>IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+0</v>
       </c>
       <c r="F72" s="9" t="str">
@@ -5564,11 +5564,11 @@
         <v>17.71</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f>IF(COUNTIF(F73:L73,"D")&gt;0,"D",IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+0</v>
       </c>
       <c r="E73" s="23" t="str">
-        <f>IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+0</v>
       </c>
       <c r="F73" s="9" t="str">
@@ -5608,11 +5608,11 @@
         <v>17.802401842000002</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f>IF(COUNTIF(F74:L74,"D")&gt;0,"D",IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+0</v>
       </c>
       <c r="E74" s="23" t="str">
-        <f>IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+0</v>
       </c>
       <c r="F74" s="9" t="str">
@@ -5652,11 +5652,11 @@
         <v>17.802979463</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f>IF(COUNTIF(F75:L75,"D")&gt;0,"D",IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+0</v>
       </c>
       <c r="E75" s="23" t="str">
-        <f>IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+0</v>
       </c>
       <c r="F75" s="9" t="str">
@@ -5696,11 +5696,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f>IF(COUNTIF(F76:L76,"D")&gt;0,"D",IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E76" s="23" t="str">
-        <f>IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F76" s="9" t="str">
@@ -5740,11 +5740,11 @@
         <v>17.850000000000001</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f>IF(COUNTIF(F77:L77,"D")&gt;0,"D",IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E77" s="23" t="str">
-        <f>IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F77" s="9" t="str">
@@ -5784,11 +5784,11 @@
         <v>17.91</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f>IF(COUNTIF(F78:L78,"D")&gt;0,"D",IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E78" s="23" t="str">
-        <f>IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F78" s="9" t="str">
@@ -5828,11 +5828,11 @@
         <v>18.29</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f>IF(COUNTIF(F79:L79,"D")&gt;0,"D",IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E79" s="23" t="str">
-        <f>IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F79" s="9" t="str">
@@ -5872,11 +5872,11 @@
         <v>18.48</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f>IF(COUNTIF(F80:L80,"D")&gt;0,"D",IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E80" s="23" t="str">
-        <f>IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F80" s="9" t="str">
@@ -5916,11 +5916,11 @@
         <v>18.559999999999999</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f>IF(COUNTIF(F81:L81,"D")&gt;0,"D",IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E81" s="23" t="str">
-        <f>IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F81" s="9" t="str">
@@ -5960,11 +5960,11 @@
         <v>18.57818717</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f>IF(COUNTIF(F82:L82,"D")&gt;0,"D",IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E82" s="23" t="str">
-        <f>IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F82" s="9" t="str">
@@ -6004,11 +6004,11 @@
         <v>18.588187170000001</v>
       </c>
       <c r="D83" s="23" t="str">
-        <f>IF(COUNTIF(F83:L83,"D")&gt;0,"D",IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E83" s="23" t="str">
-        <f>IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F83" s="9" t="str">
@@ -6048,11 +6048,11 @@
         <v>18.605671771000001</v>
       </c>
       <c r="D84" s="23" t="str">
-        <f>IF(COUNTIF(F84:L84,"D")&gt;0,"D",IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>-III</v>
       </c>
       <c r="E84" s="23" t="str">
-        <f>IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>-III</v>
       </c>
       <c r="F84" s="9" t="str">
@@ -6092,11 +6092,11 @@
         <v>18.605671772000001</v>
       </c>
       <c r="D85" s="23" t="str">
-        <f>IF(COUNTIF(F85:L85,"D")&gt;0,"D",IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E85" s="23" t="str">
-        <f>IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F85" s="9" t="str">
@@ -6136,11 +6136,11 @@
         <v>18.61409317</v>
       </c>
       <c r="D86" s="23" t="str">
-        <f>IF(COUNTIF(F86:L86,"D")&gt;0,"D",IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E86" s="23" t="str">
-        <f>IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F86" s="9" t="str">
@@ -6180,11 +6180,11 @@
         <v>18.624093169999998</v>
       </c>
       <c r="D87" s="23" t="str">
-        <f>IF(COUNTIF(F87:L87,"D")&gt;0,"D",IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E87" s="23" t="str">
-        <f>IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F87" s="9" t="str">
@@ -6224,11 +6224,11 @@
         <v>18.64</v>
       </c>
       <c r="D88" s="23" t="str">
-        <f>IF(COUNTIF(F88:L88,"D")&gt;0,"D",IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E88" s="23" t="str">
-        <f>IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F88" s="9" t="str">
@@ -6268,11 +6268,11 @@
         <v>18.66</v>
       </c>
       <c r="D89" s="23" t="str">
-        <f>IF(COUNTIF(F89:L89,"D")&gt;0,"D",IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E89" s="23" t="str">
-        <f>IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F89" s="9" t="str">
@@ -6312,11 +6312,11 @@
         <v>18.75</v>
       </c>
       <c r="D90" s="23" t="str">
-        <f>IF(COUNTIF(F90:L90,"D")&gt;0,"D",IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E90" s="23" t="str">
-        <f>IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F90" s="9" t="str">
@@ -6356,11 +6356,11 @@
         <v>19.070850830000001</v>
       </c>
       <c r="D91" s="23" t="str">
-        <f>IF(COUNTIF(F91:L91,"D")&gt;0,"D",IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E91" s="23" t="str">
-        <f>IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F91" s="9" t="str">
@@ -6400,11 +6400,11 @@
         <v>19.080850829999999</v>
       </c>
       <c r="D92" s="23" t="str">
-        <f>IF(COUNTIF(F92:L92,"D")&gt;0,"D",IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E92" s="23" t="str">
-        <f>IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F92" s="9" t="str">
@@ -6444,11 +6444,11 @@
         <v>19.13233735</v>
       </c>
       <c r="D93" s="23" t="str">
-        <f>IF(COUNTIF(F93:L93,"D")&gt;0,"D",IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E93" s="23" t="str">
-        <f>IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F93" s="9" t="str">
@@ -6488,11 +6488,11 @@
         <v>19.142337349999998</v>
       </c>
       <c r="D94" s="23" t="str">
-        <f>IF(COUNTIF(F94:L94,"D")&gt;0,"D",IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E94" s="23" t="str">
-        <f>IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F94" s="9" t="str">
@@ -6532,11 +6532,11 @@
         <v>19.574514854</v>
       </c>
       <c r="D95" s="23" t="str">
-        <f>IF(COUNTIF(F95:L95,"D")&gt;0,"D",IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E95" s="23" t="str">
-        <f>IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F95" s="9" t="str">
@@ -6576,11 +6576,11 @@
         <v>19.670000000000002</v>
       </c>
       <c r="D96" s="23" t="str">
-        <f>IF(COUNTIF(F96:L96,"D")&gt;0,"D",IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E96" s="23" t="str">
-        <f>IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F96" s="9" t="str">
@@ -6620,11 +6620,11 @@
         <v>19.69841048</v>
       </c>
       <c r="D97" s="23" t="str">
-        <f>IF(COUNTIF(F97:L97,"D")&gt;0,"D",IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E97" s="23" t="str">
-        <f>IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F97" s="9" t="str">
@@ -6664,11 +6664,11 @@
         <v>19.809999999999999</v>
       </c>
       <c r="D98" s="23" t="str">
-        <f>IF(COUNTIF(F98:L98,"D")&gt;0,"D",IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+II</v>
       </c>
       <c r="E98" s="23" t="str">
-        <f>IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F98" s="9" t="str">
@@ -6708,11 +6708,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="D99" s="23" t="str">
-        <f>IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D99:D106" si="6">IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E99" s="23" t="str">
-        <f>IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E99:E106" si="7">IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F99" s="9" t="str">
@@ -6752,11 +6752,11 @@
         <v>20.352428100000001</v>
       </c>
       <c r="D100" s="23" t="str">
-        <f>IF(COUNTIF(F100:L100,"D")&gt;0,"D",IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E100" s="23" t="str">
-        <f>IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F100" s="9" t="str">
@@ -6796,11 +6796,11 @@
         <v>20.362428099999999</v>
       </c>
       <c r="D101" s="23" t="str">
-        <f>IF(COUNTIF(F101:L101,"D")&gt;0,"D",IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E101" s="23" t="str">
-        <f>IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F101" s="9" t="str">
@@ -6840,11 +6840,11 @@
         <v>20.49</v>
       </c>
       <c r="D102" s="23" t="str">
-        <f>IF(COUNTIF(F102:L102,"D")&gt;0,"D",IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E102" s="23" t="str">
-        <f>IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F102" s="9" t="str">
@@ -6884,11 +6884,11 @@
         <v>20.64</v>
       </c>
       <c r="D103" s="23" t="str">
-        <f>IF(COUNTIF(F103:L103,"D")&gt;0,"D",IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E103" s="23" t="str">
-        <f>IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F103" s="9" t="str">
@@ -6928,11 +6928,11 @@
         <v>20.69</v>
       </c>
       <c r="D104" s="23" t="str">
-        <f>IF(COUNTIF(F104:L104,"D")&gt;0,"D",IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E104" s="23" t="str">
-        <f>IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F104" s="9" t="str">
@@ -6972,11 +6972,11 @@
         <v>20.76</v>
       </c>
       <c r="D105" s="23" t="str">
-        <f>IF(COUNTIF(F105:L105,"D")&gt;0,"D",IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E105" s="23" t="str">
-        <f>IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F105" s="9" t="str">
@@ -7016,11 +7016,11 @@
         <v>20.93</v>
       </c>
       <c r="D106" s="24" t="str">
-        <f>IF(COUNTIF(F106:L106,"D")&gt;0,"D",IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E106" s="24" t="str">
-        <f>IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F106" s="14" t="str">
@@ -7387,8 +7387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,35 +7579,35 @@
         <v>+0</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q29" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99967754198092962</v>
       </c>
       <c r="R11" s="10">
-        <f>IF(M11="-",1,Q11)</f>
+        <f t="shared" ref="R11" si="5">IF(M11="-",1,Q11)</f>
         <v>0.99967754198092962</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S29" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11" si="6">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>7.6331610640396367E-3</v>
       </c>
       <c r="T11" s="10">
-        <f>IF(L11="-",0,S11)</f>
+        <f t="shared" ref="T11" si="7">IF(L11="-",0,S11)</f>
         <v>7.6331610640396367E-3</v>
       </c>
       <c r="U11" s="9">
-        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+0</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f t="shared" ref="X11:X30" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7655,35 +7655,35 @@
         <v>-III</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q12:Q30" si="9">IF(AND(F12="Geen faalkans",I12="Nee"),1,1-M12)</f>
         <v>0.96687971099973469</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R30" si="6">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R30" si="10">IF(M12="-",1,Q12)</f>
         <v>0.96687971099973469</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S12:S30" si="11">IF(AND(F12="Geen faalkans",I12="Nee"),0,L12*$C$3)</f>
         <v>0.77479806528170336</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T30" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T30" si="12">IF(L12="-",0,S12)</f>
         <v>0.77479806528170336</v>
       </c>
       <c r="U12" s="9">
-        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1</v>
       </c>
       <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>-III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X30" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7731,31 +7731,31 @@
         <v>+III</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999999894759073</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999999894759073</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.6250146500510961E-8</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6250146500510961E-8</v>
       </c>
       <c r="U13" s="9">
-        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V13)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
@@ -7807,31 +7807,31 @@
         <v>+I</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999612213926126</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999612213926126</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.46973349652144E-5</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.46973349652144E-5</v>
       </c>
       <c r="U14" s="9">
-        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>+I</v>
       </c>
       <c r="X14" s="12" t="b">
@@ -7883,31 +7883,31 @@
         <v>+0</v>
       </c>
       <c r="Q15" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99989653137515799</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99989653137515799</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3004388689084757E-3</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3004388689084757E-3</v>
       </c>
       <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
         <v>+0</v>
       </c>
       <c r="X15" s="12" t="b">
@@ -7959,31 +7959,31 @@
         <v>+I</v>
       </c>
       <c r="Q16" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999434686424649</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999434686424649</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.8633480097721185E-5</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.8633480097721185E-5</v>
       </c>
       <c r="U16" s="9">
-        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="V16" s="9">
-        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
         <v>+I</v>
       </c>
       <c r="X16" s="12" t="b">
@@ -8035,31 +8035,31 @@
         <v>-II</v>
       </c>
       <c r="Q17" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99890109971222307</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99890109971222307</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3286611137412056E-2</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3286611137412056E-2</v>
       </c>
       <c r="U17" s="9">
-        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.01</v>
       </c>
       <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
         <v>-II</v>
       </c>
       <c r="X17" s="12" t="b">
@@ -8111,31 +8111,31 @@
         <v>-II</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9965055800359176</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.9965055800359176</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.6510507997090644E-2</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.6510507997090644E-2</v>
       </c>
       <c r="U18" s="9">
-        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.01</v>
       </c>
       <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
         <v>-II</v>
       </c>
       <c r="X18" s="12" t="b">
@@ -8187,31 +8187,31 @@
         <v>-II</v>
       </c>
       <c r="Q19" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99558640283046607</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99558640283046607</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.8977504080749821E-2</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.8977504080749821E-2</v>
       </c>
       <c r="U19" s="9">
-        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.01</v>
       </c>
       <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
         <v>-II</v>
       </c>
       <c r="X19" s="12" t="b">
@@ -8263,31 +8263,31 @@
         <v>-I</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99907810589793922</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99907810589793922</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3781595983453085E-2</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3781595983453085E-2</v>
       </c>
       <c r="U20" s="9">
-        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-3</v>
       </c>
       <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
         <v>-I</v>
       </c>
       <c r="X20" s="12" t="b">
@@ -8339,31 +8339,31 @@
         <v>+II</v>
       </c>
       <c r="Q21" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999916480632622</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999916480632622</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.6450136163581258E-5</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6450136163581258E-5</v>
       </c>
       <c r="U21" s="9">
-        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="V21" s="9">
-        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
         <v>+II</v>
       </c>
       <c r="X21" s="12" t="b">
@@ -8415,31 +8415,31 @@
         <v>+III</v>
       </c>
       <c r="Q22" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.4748084381213148E-16</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.4748084381213148E-16</v>
       </c>
       <c r="U22" s="9">
-        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V22" s="9">
-        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
         <v>+III</v>
       </c>
       <c r="X22" s="12" t="b">
@@ -8491,31 +8491,31 @@
         <v>-II</v>
       </c>
       <c r="Q23" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99661363971280281</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99661363971280281</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.7685582405178337E-2</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.7685582405178337E-2</v>
       </c>
       <c r="U23" s="9">
-        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.01</v>
       </c>
       <c r="V23" s="9">
-        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
         <v>-II</v>
       </c>
       <c r="X23" s="12" t="b">
@@ -8567,31 +8567,31 @@
         <v>+0</v>
       </c>
       <c r="Q24" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99968729099248455</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99968729099248455</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.0913651000168017E-3</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0913651000168017E-3</v>
       </c>
       <c r="U24" s="9">
-        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="V24" s="9">
-        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V24)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
         <v>+0</v>
       </c>
       <c r="X24" s="12" t="b">
@@ -8643,31 +8643,31 @@
         <v>-II</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99897364258770283</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99897364258770283</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.7379913700956386E-3</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.7379913700956386E-3</v>
       </c>
       <c r="U25" s="9">
-        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.01</v>
       </c>
       <c r="V25" s="9">
-        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>6</v>
       </c>
       <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V25)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V25)</f>
         <v>-II</v>
       </c>
       <c r="X25" s="12" t="b">
@@ -8719,31 +8719,31 @@
         <v>+0</v>
       </c>
       <c r="Q26" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99989380755049106</v>
       </c>
       <c r="R26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99989380755049106</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.8422068221222692E-3</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8422068221222692E-3</v>
       </c>
       <c r="U26" s="9">
-        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="V26" s="9">
-        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V26)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
         <v>+0</v>
       </c>
       <c r="X26" s="12" t="b">
@@ -8795,31 +8795,31 @@
         <v>+0</v>
       </c>
       <c r="Q27" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99991197265531961</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99991197265531961</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3653297016375527E-3</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3653297016375527E-3</v>
       </c>
       <c r="U27" s="9">
-        <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M27,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="V27" s="9">
-        <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V27)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V27)</f>
         <v>+0</v>
       </c>
       <c r="X27" s="12" t="b">
@@ -8871,31 +8871,31 @@
         <v>-III</v>
       </c>
       <c r="Q28" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98649627691367547</v>
       </c>
       <c r="R28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98649627691367547</v>
       </c>
       <c r="S28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.18850688986351519</v>
       </c>
       <c r="T28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.18850688986351519</v>
       </c>
       <c r="U28" s="9">
-        <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M28,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1</v>
       </c>
       <c r="V28" s="9">
-        <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>7</v>
       </c>
       <c r="W28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V28)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V28)</f>
         <v>-III</v>
       </c>
       <c r="X28" s="12" t="b">
@@ -8947,31 +8947,31 @@
         <v>+III</v>
       </c>
       <c r="Q29" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999987422566861</v>
       </c>
       <c r="R29" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999987422566861</v>
       </c>
       <c r="S29" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.5860427628608081E-6</v>
       </c>
       <c r="T29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.5860427628608081E-6</v>
       </c>
       <c r="U29" s="9">
-        <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M29,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V29" s="9">
-        <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V29)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V29)</f>
         <v>+III</v>
       </c>
       <c r="X29" s="12" t="b">
@@ -9007,7 +9007,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="27"/>
       <c r="L30" s="33">
-        <f t="shared" ref="L30" si="9">IF($E30="Nee",0,IF(ISNUMBER(J30),J30,IF(ISNUMBER(G30),G30,"-")))</f>
+        <f t="shared" ref="L30" si="13">IF($E30="Nee",0,IF(ISNUMBER(J30),J30,IF(ISNUMBER(G30),G30,"-")))</f>
         <v>3.9992397582768299E-9</v>
       </c>
       <c r="M30" s="15">
@@ -9015,7 +9015,7 @@
         <v>1.1227119875125991E-8</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" ref="N30" si="10">IF(ISNUMBER(L30),IF(M30=0,1,M30/L30),"-")</f>
+        <f t="shared" ref="N30" si="14">IF(ISNUMBER(L30),IF(M30=0,1,M30/L30),"-")</f>
         <v>2.807313527999999</v>
       </c>
       <c r="O30" s="34" t="str">
@@ -9023,31 +9023,31 @@
         <v>+III</v>
       </c>
       <c r="Q30" s="33">
-        <f>IF(AND(F30="Geen faalkans",I30="Nee"),1,1-M30)</f>
+        <f t="shared" si="9"/>
         <v>0.9999999887728801</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.9999999887728801</v>
       </c>
       <c r="S30" s="15">
-        <f>IF(AND(F30="Geen faalkans",I30="Nee"),0,L30*$C$3)</f>
+        <f t="shared" si="11"/>
         <v>1.1557802901420038E-7</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1557802901420038E-7</v>
       </c>
       <c r="U30" s="14">
-        <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M30,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V30" s="14">
-        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W30" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,STPH!V30)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V30)</f>
         <v>+III</v>
       </c>
       <c r="X30" s="17" t="b">
@@ -9178,7 +9178,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9198,7 +9198,7 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9369,35 +9369,35 @@
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q26" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999997050225653</v>
       </c>
       <c r="R11" s="10">
-        <f>IF(M11="-",1,Q11)</f>
+        <f t="shared" ref="R11" si="4">IF(M11="-",1,Q11)</f>
         <v>0.99999997050225653</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S26" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>3.8776000000000003E-7</v>
       </c>
       <c r="T11" s="10">
-        <f>IF(L11="-",0,S11)</f>
+        <f t="shared" ref="T11" si="6">IF(L11="-",0,S11)</f>
         <v>3.8776000000000003E-7</v>
       </c>
       <c r="U11" s="9">
-        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f t="shared" ref="X11:X26" si="7">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9445,35 +9445,35 @@
         <v>+III</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q12:Q26" si="8">IF(AND(F12="Geen faalkans",I12="Nee"),1,1-M12)</f>
         <v>0.99999999088659142</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R26" si="5">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R26" si="9">IF(M12="-",1,Q12)</f>
         <v>0.99999999088659142</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S12:S26" si="10">IF(AND(F12="Geen faalkans",I12="Nee"),0,L12*$C$3)</f>
         <v>1.32312E-7</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T26" si="6">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T26" si="11">IF(L12="-",0,S12)</f>
         <v>1.32312E-7</v>
       </c>
       <c r="U12" s="9">
-        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X26" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9521,31 +9521,31 @@
         <v>+III</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.22E-23</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.22E-23</v>
       </c>
       <c r="U13" s="9">
-        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V13)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
@@ -9597,31 +9597,31 @@
         <v>+III</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999998623925646</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999998623925646</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.32312E-7</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.32312E-7</v>
       </c>
       <c r="U14" s="9">
-        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
@@ -9673,31 +9673,31 @@
         <v>+III</v>
       </c>
       <c r="Q15" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999985190368468</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999985190368468</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1011200000000001E-6</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1011200000000001E-6</v>
       </c>
       <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
         <v>+III</v>
       </c>
       <c r="X15" s="12" t="b">
@@ -9749,31 +9749,31 @@
         <v>+III</v>
       </c>
       <c r="Q16" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999999887568725</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999999887568725</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.4703948691099082E-9</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4703948691099082E-9</v>
       </c>
       <c r="U16" s="9">
-        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V16" s="9">
-        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
@@ -9825,31 +9825,31 @@
         <v>+II</v>
       </c>
       <c r="Q17" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999855191124742</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999855191124742</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.9772000000000005E-6</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.9772000000000005E-6</v>
       </c>
       <c r="U17" s="9">
-        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="V17" s="9">
-        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
         <v>+II</v>
       </c>
       <c r="X17" s="12" t="b">
@@ -9901,31 +9901,31 @@
         <v>+III</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999995570854028</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999995570854028</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.8776000000000003E-7</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8776000000000003E-7</v>
       </c>
       <c r="U18" s="9">
-        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
         <v>+III</v>
       </c>
       <c r="X18" s="12" t="b">
@@ -9977,31 +9977,31 @@
         <v>+III</v>
       </c>
       <c r="Q19" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.0802905928606341E-19</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.0802905928606341E-19</v>
       </c>
       <c r="U19" s="9">
-        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
@@ -10053,31 +10053,31 @@
         <v>+III</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999999046218002</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999999046218002</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.3512000000000006E-8</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.3512000000000006E-8</v>
       </c>
       <c r="U20" s="9">
-        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
@@ -10129,31 +10129,31 @@
         <v>+III</v>
       </c>
       <c r="Q21" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999969473832384</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999969473832384</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.8265142438444017E-6</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8265142438444017E-6</v>
       </c>
       <c r="U21" s="9">
-        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V21" s="9">
-        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
         <v>+III</v>
       </c>
       <c r="X21" s="12" t="b">
@@ -10205,31 +10205,31 @@
         <v>+II</v>
       </c>
       <c r="Q22" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999852687241664</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999852687241664</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.1303201390029725E-6</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.1303201390029725E-6</v>
       </c>
       <c r="U22" s="9">
-        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="V22" s="9">
-        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
         <v>+II</v>
       </c>
       <c r="X22" s="12" t="b">
@@ -10281,31 +10281,31 @@
         <v>+III</v>
       </c>
       <c r="Q23" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999999991046495</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999999991046495</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.5332000000000004E-10</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.5332000000000004E-10</v>
       </c>
       <c r="U23" s="9">
-        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V23" s="9">
-        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
         <v>+III</v>
       </c>
       <c r="X23" s="12" t="b">
@@ -10357,31 +10357,31 @@
         <v>+III</v>
       </c>
       <c r="Q24" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999999692438213</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999999692438213</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.9747999999999999E-8</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9747999999999999E-8</v>
       </c>
       <c r="U24" s="9">
-        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V24" s="9">
-        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V24)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
         <v>+III</v>
       </c>
       <c r="X24" s="12" t="b">
@@ -10433,31 +10433,31 @@
         <v>+III</v>
       </c>
       <c r="Q25" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999990553948881</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999990553948881</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.1222951177646932E-7</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.1222951177646932E-7</v>
       </c>
       <c r="U25" s="9">
-        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
-        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V25)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V25)</f>
         <v>+III</v>
       </c>
       <c r="X25" s="12" t="b">
@@ -10509,31 +10509,31 @@
         <v>+III</v>
       </c>
       <c r="Q26" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.99999983035609963</v>
       </c>
       <c r="R26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999983035609963</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3849634529905494E-6</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.3849634529905494E-6</v>
       </c>
       <c r="U26" s="9">
-        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="V26" s="9">
-        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,V26)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
         <v>+III</v>
       </c>
       <c r="X26" s="12" t="b">
@@ -10759,8 +10759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K69" sqref="K11:K69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10776,7 +10776,7 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10923,35 +10923,35 @@
         <v>+II</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M69" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>0.99999951128800002</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N69" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>0.99999951128800002</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O69" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>9.7742399999999998E-7</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11" si="4">IF(J11="-",0,O11)</f>
         <v>9.7742399999999998E-7</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+II</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T69" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
         <v>2.2283700000000001E-6</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" ref="J12:J69" si="4">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
+        <f t="shared" ref="J12:J69" si="6">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>2.2283700000000001E-6</v>
       </c>
       <c r="K12" s="32" t="str">
@@ -10987,35 +10987,35 @@
         <v>+II</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12:M69" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>0.99999777163000003</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12:N69" si="8">IF(J12="-",1,M12)</f>
         <v>0.99999777163000003</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O12:O69" si="9">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>4.4567400000000003E-6</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P69" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P69" si="10">IF(J12="-",0,O12)</f>
         <v>4.4567400000000003E-6</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T69" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
         <v>5.3529199999999997E-7</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3529199999999997E-7</v>
       </c>
       <c r="K13" s="32" t="str">
@@ -11051,35 +11051,35 @@
         <v>+II</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999946470800005</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999946470800005</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0705839999999999E-6</v>
       </c>
       <c r="P13" s="10">
+        <f t="shared" si="10"/>
+        <v>1.0705839999999999E-6</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333333E-6</v>
+      </c>
+      <c r="R13" s="9">
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
+        <v>+II</v>
+      </c>
+      <c r="T13" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>1.0705839999999999E-6</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333333E-6</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>2</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R13)</f>
-        <v>+II</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
         <v>2.4707600000000001E-7</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4707600000000001E-7</v>
       </c>
       <c r="K14" s="32" t="str">
@@ -11115,35 +11115,35 @@
         <v>+III</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999975292400001</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999975292400001</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.9415200000000002E-7</v>
       </c>
       <c r="P14" s="10">
+        <f t="shared" si="10"/>
+        <v>4.9415200000000002E-7</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R14" s="9">
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
+        <v>+III</v>
+      </c>
+      <c r="T14" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>4.9415200000000002E-7</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
         <v>1.6301700000000001E-7</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6301700000000001E-7</v>
       </c>
       <c r="K15" s="32" t="str">
@@ -11179,35 +11179,35 @@
         <v>+III</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999983698299999</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999983698299999</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.2603400000000002E-7</v>
       </c>
       <c r="P15" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2603400000000002E-7</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R15" s="9">
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
+        <v>+III</v>
+      </c>
+      <c r="T15" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>3.2603400000000002E-7</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11235,7 +11235,7 @@
         <v>4.14189E-7</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" ref="J16:J62" si="7">IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <f t="shared" ref="J16:J62" si="11">IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
         <v>4.14189E-7</v>
       </c>
       <c r="K16" s="32" t="str">
@@ -11243,35 +11243,35 @@
         <v>+II</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" ref="M16:M62" si="8">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
+        <f t="shared" si="7"/>
         <v>0.99999958581100001</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N62" si="9">IF(J16="-",1,M16)</f>
+        <f t="shared" si="8"/>
         <v>0.99999958581100001</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" ref="O16:O62" si="10">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <f t="shared" si="9"/>
         <v>8.2837800000000001E-7</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P62" si="11">IF(J16="-",0,O16)</f>
+        <f t="shared" si="10"/>
         <v>8.2837800000000001E-7</v>
       </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
         <v>4.0974000000000001E-7</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0974000000000001E-7</v>
       </c>
       <c r="K17" s="32" t="str">
@@ -11307,35 +11307,35 @@
         <v>+II</v>
       </c>
       <c r="M17" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999959025999996</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>0.99999959025999996</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999959025999996</v>
-      </c>
-      <c r="O17" s="10">
+        <v>8.1948000000000003E-7</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
         <v>8.1948000000000003E-7</v>
       </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
-        <v>8.1948000000000003E-7</v>
-      </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>+II</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11363,7 +11363,7 @@
         <v>2.9829200000000001E-7</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.9829200000000001E-7</v>
       </c>
       <c r="K18" s="32" t="str">
@@ -11371,35 +11371,35 @@
         <v>+III</v>
       </c>
       <c r="M18" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999970170800001</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>0.99999970170800001</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999970170800001</v>
-      </c>
-      <c r="O18" s="10">
+        <v>5.9658400000000002E-7</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
         <v>5.9658400000000002E-7</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
-        <v>5.9658400000000002E-7</v>
-      </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
         <v>4.3527099999999998E-7</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.3527099999999998E-7</v>
       </c>
       <c r="K19" s="32" t="str">
@@ -11435,35 +11435,35 @@
         <v>+II</v>
       </c>
       <c r="M19" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999956472899998</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>0.99999956472899998</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999956472899998</v>
-      </c>
-      <c r="O19" s="10">
+        <v>8.7054199999999996E-7</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
         <v>8.7054199999999996E-7</v>
       </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
-        <v>8.7054199999999996E-7</v>
-      </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+II</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
         <v>5.8199800000000005E-7</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8199800000000005E-7</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -11499,35 +11499,35 @@
         <v>+II</v>
       </c>
       <c r="M20" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999941800199998</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="8"/>
         <v>0.99999941800199998</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999941800199998</v>
-      </c>
-      <c r="O20" s="10">
+        <v>1.1639960000000001E-6</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="10"/>
         <v>1.1639960000000001E-6</v>
       </c>
-      <c r="P20" s="10">
-        <f t="shared" si="11"/>
-        <v>1.1639960000000001E-6</v>
-      </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
         <v>9.1537499999999995E-8</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.1537499999999995E-8</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -11563,35 +11563,35 @@
         <v>+III</v>
       </c>
       <c r="M21" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999990846249998</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="8"/>
         <v>0.99999990846249998</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999990846249998</v>
-      </c>
-      <c r="O21" s="10">
+        <v>1.8307499999999999E-7</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="10"/>
         <v>1.8307499999999999E-7</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="11"/>
-        <v>1.8307499999999999E-7</v>
-      </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
         <v>6.9467900000000005E-8</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.9467900000000005E-8</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -11627,35 +11627,35 @@
         <v>+III</v>
       </c>
       <c r="M22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999993053210001</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="8"/>
         <v>0.99999993053210001</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999993053210001</v>
-      </c>
-      <c r="O22" s="10">
+        <v>1.3893580000000001E-7</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="10"/>
         <v>1.3893580000000001E-7</v>
       </c>
-      <c r="P22" s="10">
-        <f t="shared" si="11"/>
-        <v>1.3893580000000001E-7</v>
-      </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
         <v>1.1827500000000001E-7</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1827500000000001E-7</v>
       </c>
       <c r="K23" s="32" t="str">
@@ -11691,35 +11691,35 @@
         <v>+III</v>
       </c>
       <c r="M23" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999988172499998</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="8"/>
         <v>0.99999988172499998</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999988172499998</v>
-      </c>
-      <c r="O23" s="10">
+        <v>2.3655000000000001E-7</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="10"/>
         <v>2.3655000000000001E-7</v>
       </c>
-      <c r="P23" s="10">
-        <f t="shared" si="11"/>
-        <v>2.3655000000000001E-7</v>
-      </c>
       <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
         <v>8.9703400000000001E-8</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.9703400000000001E-8</v>
       </c>
       <c r="K24" s="32" t="str">
@@ -11755,35 +11755,35 @@
         <v>+III</v>
       </c>
       <c r="M24" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999991029659996</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="8"/>
         <v>0.99999991029659996</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999991029659996</v>
-      </c>
-      <c r="O24" s="10">
+        <v>1.794068E-7</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="10"/>
         <v>1.794068E-7</v>
       </c>
-      <c r="P24" s="10">
-        <f t="shared" si="11"/>
-        <v>1.794068E-7</v>
-      </c>
       <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R24)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
         <v>+III</v>
       </c>
       <c r="T24" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
         <v>1.04505E-7</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.04505E-7</v>
       </c>
       <c r="K25" s="32" t="str">
@@ -11819,35 +11819,35 @@
         <v>+III</v>
       </c>
       <c r="M25" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999989549500001</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="8"/>
         <v>0.99999989549500001</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999989549500001</v>
-      </c>
-      <c r="O25" s="10">
+        <v>2.0900999999999999E-7</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="10"/>
         <v>2.0900999999999999E-7</v>
       </c>
-      <c r="P25" s="10">
-        <f t="shared" si="11"/>
-        <v>2.0900999999999999E-7</v>
-      </c>
       <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R25)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
         <v>+III</v>
       </c>
       <c r="T25" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11875,7 +11875,7 @@
         <v>1.12355E-7</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.12355E-7</v>
       </c>
       <c r="K26" s="32" t="str">
@@ -11883,35 +11883,35 @@
         <v>+III</v>
       </c>
       <c r="M26" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999988764500003</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="8"/>
         <v>0.99999988764500003</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999988764500003</v>
-      </c>
-      <c r="O26" s="10">
+        <v>2.2471000000000001E-7</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="10"/>
         <v>2.2471000000000001E-7</v>
       </c>
-      <c r="P26" s="10">
-        <f t="shared" si="11"/>
-        <v>2.2471000000000001E-7</v>
-      </c>
       <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R26)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
         <v>+III</v>
       </c>
       <c r="T26" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
         <v>1.70708E-7</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.70708E-7</v>
       </c>
       <c r="K27" s="32" t="str">
@@ -11947,35 +11947,35 @@
         <v>+III</v>
       </c>
       <c r="M27" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999982929200004</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="8"/>
         <v>0.99999982929200004</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999982929200004</v>
-      </c>
-      <c r="O27" s="10">
+        <v>3.4141599999999999E-7</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="10"/>
         <v>3.4141599999999999E-7</v>
       </c>
-      <c r="P27" s="10">
-        <f t="shared" si="11"/>
-        <v>3.4141599999999999E-7</v>
-      </c>
       <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R27)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
         <v>+III</v>
       </c>
       <c r="T27" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12003,7 +12003,7 @@
         <v>9.9740799999999995E-8</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.9740799999999995E-8</v>
       </c>
       <c r="K28" s="32" t="str">
@@ -12011,35 +12011,35 @@
         <v>+III</v>
       </c>
       <c r="M28" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999990025920005</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="8"/>
         <v>0.99999990025920005</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999990025920005</v>
-      </c>
-      <c r="O28" s="10">
+        <v>1.9948159999999999E-7</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="10"/>
         <v>1.9948159999999999E-7</v>
       </c>
-      <c r="P28" s="10">
-        <f t="shared" si="11"/>
-        <v>1.9948159999999999E-7</v>
-      </c>
       <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R28)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
         <v>+III</v>
       </c>
       <c r="T28" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12067,7 +12067,7 @@
         <v>1.4308899999999999E-7</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4308899999999999E-7</v>
       </c>
       <c r="K29" s="32" t="str">
@@ -12075,35 +12075,35 @@
         <v>+III</v>
       </c>
       <c r="M29" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999985691100002</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="8"/>
         <v>0.99999985691100002</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999985691100002</v>
-      </c>
-      <c r="O29" s="10">
+        <v>2.8617799999999998E-7</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="10"/>
         <v>2.8617799999999998E-7</v>
       </c>
-      <c r="P29" s="10">
-        <f t="shared" si="11"/>
-        <v>2.8617799999999998E-7</v>
-      </c>
       <c r="Q29" s="9">
-        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R29" s="9">
-        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R29)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R29)</f>
         <v>+III</v>
       </c>
       <c r="T29" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
         <v>2.0494799999999999E-6</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0494799999999999E-6</v>
       </c>
       <c r="K30" s="32" t="str">
@@ -12139,35 +12139,35 @@
         <v>+II</v>
       </c>
       <c r="M30" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999795051999996</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="8"/>
         <v>0.99999795051999996</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999795051999996</v>
-      </c>
-      <c r="O30" s="10">
+        <v>4.0989599999999998E-6</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="10"/>
         <v>4.0989599999999998E-6</v>
       </c>
-      <c r="P30" s="10">
-        <f t="shared" si="11"/>
-        <v>4.0989599999999998E-6</v>
-      </c>
       <c r="Q30" s="9">
-        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R30" s="9">
-        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R30)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
         <v>+II</v>
       </c>
       <c r="T30" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12195,7 +12195,7 @@
         <v>4.8194700000000002E-7</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8194700000000002E-7</v>
       </c>
       <c r="K31" s="32" t="str">
@@ -12203,35 +12203,35 @@
         <v>+II</v>
       </c>
       <c r="M31" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999951805300002</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="8"/>
         <v>0.99999951805300002</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999951805300002</v>
-      </c>
-      <c r="O31" s="10">
+        <v>9.6389400000000004E-7</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="10"/>
         <v>9.6389400000000004E-7</v>
       </c>
-      <c r="P31" s="10">
-        <f t="shared" si="11"/>
-        <v>9.6389400000000004E-7</v>
-      </c>
       <c r="Q31" s="9">
-        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R31" s="9">
-        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R31)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R31)</f>
         <v>+II</v>
       </c>
       <c r="T31" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
         <v>5.34078E-8</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.34078E-8</v>
       </c>
       <c r="K32" s="32" t="str">
@@ -12267,35 +12267,35 @@
         <v>+III</v>
       </c>
       <c r="M32" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999994659220004</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="8"/>
         <v>0.99999994659220004</v>
       </c>
-      <c r="N32" s="10">
+      <c r="O32" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999994659220004</v>
-      </c>
-      <c r="O32" s="10">
+        <v>1.068156E-7</v>
+      </c>
+      <c r="P32" s="10">
         <f t="shared" si="10"/>
         <v>1.068156E-7</v>
       </c>
-      <c r="P32" s="10">
-        <f t="shared" si="11"/>
-        <v>1.068156E-7</v>
-      </c>
       <c r="Q32" s="9">
-        <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R32" s="9">
-        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R32)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R32)</f>
         <v>+III</v>
       </c>
       <c r="T32" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12323,7 +12323,7 @@
         <v>9.4277100000000004E-7</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.4277100000000004E-7</v>
       </c>
       <c r="K33" s="32" t="str">
@@ -12331,35 +12331,35 @@
         <v>+II</v>
       </c>
       <c r="M33" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999905722899995</v>
+      </c>
+      <c r="N33" s="10">
         <f t="shared" si="8"/>
         <v>0.99999905722899995</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999905722899995</v>
-      </c>
-      <c r="O33" s="10">
+        <v>1.8855420000000001E-6</v>
+      </c>
+      <c r="P33" s="10">
         <f t="shared" si="10"/>
         <v>1.8855420000000001E-6</v>
       </c>
-      <c r="P33" s="10">
-        <f t="shared" si="11"/>
-        <v>1.8855420000000001E-6</v>
-      </c>
       <c r="Q33" s="9">
-        <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R33" s="9">
-        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R33)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R33)</f>
         <v>+II</v>
       </c>
       <c r="T33" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
         <v>6.3721699999999995E-7</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.3721699999999995E-7</v>
       </c>
       <c r="K34" s="32" t="str">
@@ -12395,35 +12395,35 @@
         <v>+II</v>
       </c>
       <c r="M34" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999936278299995</v>
+      </c>
+      <c r="N34" s="10">
         <f t="shared" si="8"/>
         <v>0.99999936278299995</v>
       </c>
-      <c r="N34" s="10">
+      <c r="O34" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999936278299995</v>
-      </c>
-      <c r="O34" s="10">
+        <v>1.2744339999999999E-6</v>
+      </c>
+      <c r="P34" s="10">
         <f t="shared" si="10"/>
         <v>1.2744339999999999E-6</v>
       </c>
-      <c r="P34" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2744339999999999E-6</v>
-      </c>
       <c r="Q34" s="9">
-        <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333333E-6</v>
       </c>
       <c r="R34" s="9">
-        <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R34)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
         <v>+II</v>
       </c>
       <c r="T34" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
         <v>1.9927399999999999E-7</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.9927399999999999E-7</v>
       </c>
       <c r="K35" s="32" t="str">
@@ -12459,35 +12459,35 @@
         <v>+III</v>
       </c>
       <c r="M35" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999980072600003</v>
+      </c>
+      <c r="N35" s="10">
         <f t="shared" si="8"/>
         <v>0.99999980072600003</v>
       </c>
-      <c r="N35" s="10">
+      <c r="O35" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999980072600003</v>
-      </c>
-      <c r="O35" s="10">
+        <v>3.9854799999999998E-7</v>
+      </c>
+      <c r="P35" s="10">
         <f t="shared" si="10"/>
         <v>3.9854799999999998E-7</v>
       </c>
-      <c r="P35" s="10">
-        <f t="shared" si="11"/>
-        <v>3.9854799999999998E-7</v>
-      </c>
       <c r="Q35" s="9">
-        <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R35" s="9">
-        <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R35)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R35)</f>
         <v>+III</v>
       </c>
       <c r="T35" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12515,7 +12515,7 @@
         <v>2.4589300000000002E-7</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4589300000000002E-7</v>
       </c>
       <c r="K36" s="32" t="str">
@@ -12523,35 +12523,35 @@
         <v>+III</v>
       </c>
       <c r="M36" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999975410700004</v>
+      </c>
+      <c r="N36" s="10">
         <f t="shared" si="8"/>
         <v>0.99999975410700004</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999975410700004</v>
-      </c>
-      <c r="O36" s="10">
+        <v>4.9178600000000003E-7</v>
+      </c>
+      <c r="P36" s="10">
         <f t="shared" si="10"/>
         <v>4.9178600000000003E-7</v>
       </c>
-      <c r="P36" s="10">
-        <f t="shared" si="11"/>
-        <v>4.9178600000000003E-7</v>
-      </c>
       <c r="Q36" s="9">
-        <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R36" s="9">
-        <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R36)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R36)</f>
         <v>+III</v>
       </c>
       <c r="T36" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12579,7 +12579,7 @@
         <v>9.85034E-8</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.85034E-8</v>
       </c>
       <c r="K37" s="32" t="str">
@@ -12587,35 +12587,35 @@
         <v>+III</v>
       </c>
       <c r="M37" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999990149660001</v>
+      </c>
+      <c r="N37" s="10">
         <f t="shared" si="8"/>
         <v>0.99999990149660001</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999990149660001</v>
-      </c>
-      <c r="O37" s="10">
+        <v>1.970068E-7</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="10"/>
         <v>1.970068E-7</v>
       </c>
-      <c r="P37" s="10">
-        <f t="shared" si="11"/>
-        <v>1.970068E-7</v>
-      </c>
       <c r="Q37" s="9">
-        <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="9">
-        <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R37)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R37)</f>
         <v>+III</v>
       </c>
       <c r="T37" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
         <v>1.44241E-7</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.44241E-7</v>
       </c>
       <c r="K38" s="32" t="str">
@@ -12651,35 +12651,35 @@
         <v>+III</v>
       </c>
       <c r="M38" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999985575899997</v>
+      </c>
+      <c r="N38" s="10">
         <f t="shared" si="8"/>
         <v>0.99999985575899997</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999985575899997</v>
-      </c>
-      <c r="O38" s="10">
+        <v>2.88482E-7</v>
+      </c>
+      <c r="P38" s="10">
         <f t="shared" si="10"/>
         <v>2.88482E-7</v>
       </c>
-      <c r="P38" s="10">
-        <f t="shared" si="11"/>
-        <v>2.88482E-7</v>
-      </c>
       <c r="Q38" s="9">
-        <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R38" s="9">
-        <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R38)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R38)</f>
         <v>+III</v>
       </c>
       <c r="T38" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12707,7 +12707,7 @@
         <v>6.5282899999999998E-8</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.5282899999999998E-8</v>
       </c>
       <c r="K39" s="32" t="str">
@@ -12715,35 +12715,35 @@
         <v>+III</v>
       </c>
       <c r="M39" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999993471710003</v>
+      </c>
+      <c r="N39" s="10">
         <f t="shared" si="8"/>
         <v>0.99999993471710003</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999993471710003</v>
-      </c>
-      <c r="O39" s="10">
+        <v>1.305658E-7</v>
+      </c>
+      <c r="P39" s="10">
         <f t="shared" si="10"/>
         <v>1.305658E-7</v>
       </c>
-      <c r="P39" s="10">
-        <f t="shared" si="11"/>
-        <v>1.305658E-7</v>
-      </c>
       <c r="Q39" s="9">
-        <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R39" s="9">
-        <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R39)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R39)</f>
         <v>+III</v>
       </c>
       <c r="T39" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
         <v>1.1980900000000001E-7</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1980900000000001E-7</v>
       </c>
       <c r="K40" s="32" t="str">
@@ -12779,35 +12779,35 @@
         <v>+III</v>
       </c>
       <c r="M40" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999988019099995</v>
+      </c>
+      <c r="N40" s="10">
         <f t="shared" si="8"/>
         <v>0.99999988019099995</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999988019099995</v>
-      </c>
-      <c r="O40" s="10">
+        <v>2.3961800000000002E-7</v>
+      </c>
+      <c r="P40" s="10">
         <f t="shared" si="10"/>
         <v>2.3961800000000002E-7</v>
       </c>
-      <c r="P40" s="10">
-        <f t="shared" si="11"/>
-        <v>2.3961800000000002E-7</v>
-      </c>
       <c r="Q40" s="9">
-        <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R40" s="9">
-        <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R40)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R40)</f>
         <v>+III</v>
       </c>
       <c r="T40" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
         <v>1.39635E-8</v>
       </c>
       <c r="J41" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.39635E-8</v>
       </c>
       <c r="K41" s="32" t="str">
@@ -12843,35 +12843,35 @@
         <v>+III</v>
       </c>
       <c r="M41" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999998603649998</v>
+      </c>
+      <c r="N41" s="10">
         <f t="shared" si="8"/>
         <v>0.99999998603649998</v>
       </c>
-      <c r="N41" s="10">
+      <c r="O41" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999998603649998</v>
-      </c>
-      <c r="O41" s="10">
+        <v>2.7926999999999999E-8</v>
+      </c>
+      <c r="P41" s="10">
         <f t="shared" si="10"/>
         <v>2.7926999999999999E-8</v>
       </c>
-      <c r="P41" s="10">
-        <f t="shared" si="11"/>
-        <v>2.7926999999999999E-8</v>
-      </c>
       <c r="Q41" s="9">
-        <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R41" s="9">
-        <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R41)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R41)</f>
         <v>+III</v>
       </c>
       <c r="T41" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
         <v>8.9153699999999996E-9</v>
       </c>
       <c r="J42" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.9153699999999996E-9</v>
       </c>
       <c r="K42" s="32" t="str">
@@ -12907,35 +12907,35 @@
         <v>+III</v>
       </c>
       <c r="M42" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999108463</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999108463</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999108463</v>
-      </c>
-      <c r="O42" s="10">
+        <v>1.7830739999999999E-8</v>
+      </c>
+      <c r="P42" s="10">
         <f t="shared" si="10"/>
         <v>1.7830739999999999E-8</v>
       </c>
-      <c r="P42" s="10">
-        <f t="shared" si="11"/>
-        <v>1.7830739999999999E-8</v>
-      </c>
       <c r="Q42" s="9">
-        <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R42" s="9">
-        <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R42)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R42)</f>
         <v>+III</v>
       </c>
       <c r="T42" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12963,7 +12963,7 @@
         <v>8.0028099999999996E-9</v>
       </c>
       <c r="J43" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.0028099999999996E-9</v>
       </c>
       <c r="K43" s="32" t="str">
@@ -12971,35 +12971,35 @@
         <v>+III</v>
       </c>
       <c r="M43" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999199719003</v>
+      </c>
+      <c r="N43" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999199719003</v>
       </c>
-      <c r="N43" s="10">
+      <c r="O43" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999199719003</v>
-      </c>
-      <c r="O43" s="10">
+        <v>1.6005619999999999E-8</v>
+      </c>
+      <c r="P43" s="10">
         <f t="shared" si="10"/>
         <v>1.6005619999999999E-8</v>
       </c>
-      <c r="P43" s="10">
-        <f t="shared" si="11"/>
-        <v>1.6005619999999999E-8</v>
-      </c>
       <c r="Q43" s="9">
-        <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R43" s="9">
-        <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R43)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R43)</f>
         <v>+III</v>
       </c>
       <c r="T43" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
         <v>5.3886199999999999E-9</v>
       </c>
       <c r="J44" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3886199999999999E-9</v>
       </c>
       <c r="K44" s="32" t="str">
@@ -13035,35 +13035,35 @@
         <v>+III</v>
       </c>
       <c r="M44" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999461138001</v>
+      </c>
+      <c r="N44" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999461138001</v>
       </c>
-      <c r="N44" s="10">
+      <c r="O44" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999461138001</v>
-      </c>
-      <c r="O44" s="10">
+        <v>1.077724E-8</v>
+      </c>
+      <c r="P44" s="10">
         <f t="shared" si="10"/>
         <v>1.077724E-8</v>
       </c>
-      <c r="P44" s="10">
-        <f t="shared" si="11"/>
-        <v>1.077724E-8</v>
-      </c>
       <c r="Q44" s="9">
-        <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R44" s="9">
-        <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R44)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R44)</f>
         <v>+III</v>
       </c>
       <c r="T44" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
         <v>3.86521E-8</v>
       </c>
       <c r="J45" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.86521E-8</v>
       </c>
       <c r="K45" s="32" t="str">
@@ -13099,35 +13099,35 @@
         <v>+III</v>
       </c>
       <c r="M45" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999996134790003</v>
+      </c>
+      <c r="N45" s="10">
         <f t="shared" si="8"/>
         <v>0.99999996134790003</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999996134790003</v>
-      </c>
-      <c r="O45" s="10">
+        <v>7.7304199999999999E-8</v>
+      </c>
+      <c r="P45" s="10">
         <f t="shared" si="10"/>
         <v>7.7304199999999999E-8</v>
       </c>
-      <c r="P45" s="10">
-        <f t="shared" si="11"/>
-        <v>7.7304199999999999E-8</v>
-      </c>
       <c r="Q45" s="9">
-        <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R45" s="9">
-        <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R45)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R45)</f>
         <v>+III</v>
       </c>
       <c r="T45" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
         <v>2.0736699999999999E-8</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0736699999999999E-8</v>
       </c>
       <c r="K46" s="32" t="str">
@@ -13163,35 +13163,35 @@
         <v>+III</v>
       </c>
       <c r="M46" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999997926329998</v>
+      </c>
+      <c r="N46" s="10">
         <f t="shared" si="8"/>
         <v>0.99999997926329998</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999997926329998</v>
-      </c>
-      <c r="O46" s="10">
+        <v>4.1473399999999999E-8</v>
+      </c>
+      <c r="P46" s="10">
         <f t="shared" si="10"/>
         <v>4.1473399999999999E-8</v>
       </c>
-      <c r="P46" s="10">
-        <f t="shared" si="11"/>
-        <v>4.1473399999999999E-8</v>
-      </c>
       <c r="Q46" s="9">
-        <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R46" s="9">
-        <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R46)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R46)</f>
         <v>+III</v>
       </c>
       <c r="T46" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
         <v>1.10534E-8</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.10534E-8</v>
       </c>
       <c r="K47" s="32" t="str">
@@ -13227,35 +13227,35 @@
         <v>+III</v>
       </c>
       <c r="M47" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999998894660003</v>
+      </c>
+      <c r="N47" s="10">
         <f t="shared" si="8"/>
         <v>0.99999998894660003</v>
       </c>
-      <c r="N47" s="10">
+      <c r="O47" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999998894660003</v>
-      </c>
-      <c r="O47" s="10">
+        <v>2.21068E-8</v>
+      </c>
+      <c r="P47" s="10">
         <f t="shared" si="10"/>
         <v>2.21068E-8</v>
       </c>
-      <c r="P47" s="10">
-        <f t="shared" si="11"/>
-        <v>2.21068E-8</v>
-      </c>
       <c r="Q47" s="9">
-        <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R47" s="9">
-        <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R47)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R47)</f>
         <v>+III</v>
       </c>
       <c r="T47" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
         <v>9.6114199999999994E-8</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.6114199999999994E-8</v>
       </c>
       <c r="K48" s="32" t="str">
@@ -13291,35 +13291,35 @@
         <v>+III</v>
       </c>
       <c r="M48" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999990388579996</v>
+      </c>
+      <c r="N48" s="10">
         <f t="shared" si="8"/>
         <v>0.99999990388579996</v>
       </c>
-      <c r="N48" s="10">
+      <c r="O48" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999990388579996</v>
-      </c>
-      <c r="O48" s="10">
+        <v>1.9222839999999999E-7</v>
+      </c>
+      <c r="P48" s="10">
         <f t="shared" si="10"/>
         <v>1.9222839999999999E-7</v>
       </c>
-      <c r="P48" s="10">
-        <f t="shared" si="11"/>
-        <v>1.9222839999999999E-7</v>
-      </c>
       <c r="Q48" s="9">
-        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R48" s="9">
-        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R48)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
         <v>+III</v>
       </c>
       <c r="T48" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13347,7 +13347,7 @@
         <v>3.7022200000000003E-8</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.7022200000000003E-8</v>
       </c>
       <c r="K49" s="32" t="str">
@@ -13355,35 +13355,35 @@
         <v>+III</v>
       </c>
       <c r="M49" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999996297780003</v>
+      </c>
+      <c r="N49" s="10">
         <f t="shared" si="8"/>
         <v>0.99999996297780003</v>
       </c>
-      <c r="N49" s="10">
+      <c r="O49" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999996297780003</v>
-      </c>
-      <c r="O49" s="10">
+        <v>7.4044400000000006E-8</v>
+      </c>
+      <c r="P49" s="10">
         <f t="shared" si="10"/>
         <v>7.4044400000000006E-8</v>
       </c>
-      <c r="P49" s="10">
-        <f t="shared" si="11"/>
-        <v>7.4044400000000006E-8</v>
-      </c>
       <c r="Q49" s="9">
-        <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J49,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R49" s="9">
-        <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R49)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R49)</f>
         <v>+III</v>
       </c>
       <c r="T49" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
         <v>2.4325699999999999E-8</v>
       </c>
       <c r="J50" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4325699999999999E-8</v>
       </c>
       <c r="K50" s="32" t="str">
@@ -13419,35 +13419,35 @@
         <v>+III</v>
       </c>
       <c r="M50" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999997567429999</v>
+      </c>
+      <c r="N50" s="10">
         <f t="shared" si="8"/>
         <v>0.99999997567429999</v>
       </c>
-      <c r="N50" s="10">
+      <c r="O50" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999997567429999</v>
-      </c>
-      <c r="O50" s="10">
+        <v>4.8651399999999998E-8</v>
+      </c>
+      <c r="P50" s="10">
         <f t="shared" si="10"/>
         <v>4.8651399999999998E-8</v>
       </c>
-      <c r="P50" s="10">
-        <f t="shared" si="11"/>
-        <v>4.8651399999999998E-8</v>
-      </c>
       <c r="Q50" s="9">
-        <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R50" s="9">
-        <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R50)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
         <v>+III</v>
       </c>
       <c r="T50" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
         <v>1.49228E-8</v>
       </c>
       <c r="J51" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.49228E-8</v>
       </c>
       <c r="K51" s="32" t="str">
@@ -13483,35 +13483,35 @@
         <v>+III</v>
       </c>
       <c r="M51" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9999999850772</v>
+      </c>
+      <c r="N51" s="10">
         <f t="shared" si="8"/>
         <v>0.9999999850772</v>
       </c>
-      <c r="N51" s="10">
+      <c r="O51" s="10">
         <f t="shared" si="9"/>
-        <v>0.9999999850772</v>
-      </c>
-      <c r="O51" s="10">
+        <v>2.98456E-8</v>
+      </c>
+      <c r="P51" s="10">
         <f t="shared" si="10"/>
         <v>2.98456E-8</v>
       </c>
-      <c r="P51" s="10">
-        <f t="shared" si="11"/>
-        <v>2.98456E-8</v>
-      </c>
       <c r="Q51" s="9">
-        <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J51,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R51" s="9">
-        <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R51)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R51)</f>
         <v>+III</v>
       </c>
       <c r="T51" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13539,7 +13539,7 @@
         <v>6.2831800000000005E-8</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.2831800000000005E-8</v>
       </c>
       <c r="K52" s="32" t="str">
@@ -13547,35 +13547,35 @@
         <v>+III</v>
       </c>
       <c r="M52" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999993716820001</v>
+      </c>
+      <c r="N52" s="10">
         <f t="shared" si="8"/>
         <v>0.99999993716820001</v>
       </c>
-      <c r="N52" s="10">
+      <c r="O52" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999993716820001</v>
-      </c>
-      <c r="O52" s="10">
+        <v>1.2566360000000001E-7</v>
+      </c>
+      <c r="P52" s="10">
         <f t="shared" si="10"/>
         <v>1.2566360000000001E-7</v>
       </c>
-      <c r="P52" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2566360000000001E-7</v>
-      </c>
       <c r="Q52" s="9">
-        <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J52,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R52" s="9">
-        <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R52)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R52)</f>
         <v>+III</v>
       </c>
       <c r="T52" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
         <v>9.1854100000000002E-8</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.1854100000000002E-8</v>
       </c>
       <c r="K53" s="32" t="str">
@@ -13611,35 +13611,35 @@
         <v>+III</v>
       </c>
       <c r="M53" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999990814590001</v>
+      </c>
+      <c r="N53" s="10">
         <f t="shared" si="8"/>
         <v>0.99999990814590001</v>
       </c>
-      <c r="N53" s="10">
+      <c r="O53" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999990814590001</v>
-      </c>
-      <c r="O53" s="10">
+        <v>1.837082E-7</v>
+      </c>
+      <c r="P53" s="10">
         <f t="shared" si="10"/>
         <v>1.837082E-7</v>
       </c>
-      <c r="P53" s="10">
-        <f t="shared" si="11"/>
-        <v>1.837082E-7</v>
-      </c>
       <c r="Q53" s="9">
-        <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J53,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R53" s="9">
-        <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R53)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R53)</f>
         <v>+III</v>
       </c>
       <c r="T53" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13667,7 +13667,7 @@
         <v>2.8090299999999998E-8</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.8090299999999998E-8</v>
       </c>
       <c r="K54" s="32" t="str">
@@ -13675,35 +13675,35 @@
         <v>+III</v>
       </c>
       <c r="M54" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999997190970003</v>
+      </c>
+      <c r="N54" s="10">
         <f t="shared" si="8"/>
         <v>0.99999997190970003</v>
       </c>
-      <c r="N54" s="10">
+      <c r="O54" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999997190970003</v>
-      </c>
-      <c r="O54" s="10">
+        <v>5.6180599999999997E-8</v>
+      </c>
+      <c r="P54" s="10">
         <f t="shared" si="10"/>
         <v>5.6180599999999997E-8</v>
       </c>
-      <c r="P54" s="10">
-        <f t="shared" si="11"/>
-        <v>5.6180599999999997E-8</v>
-      </c>
       <c r="Q54" s="9">
-        <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J54,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R54" s="9">
-        <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R54)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
         <v>+III</v>
       </c>
       <c r="T54" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
         <v>6.3583000000000003E-9</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.3583000000000003E-9</v>
       </c>
       <c r="K55" s="32" t="str">
@@ -13739,35 +13739,35 @@
         <v>+III</v>
       </c>
       <c r="M55" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9999999936417</v>
+      </c>
+      <c r="N55" s="10">
         <f t="shared" si="8"/>
         <v>0.9999999936417</v>
       </c>
-      <c r="N55" s="10">
+      <c r="O55" s="10">
         <f t="shared" si="9"/>
-        <v>0.9999999936417</v>
-      </c>
-      <c r="O55" s="10">
+        <v>1.2716600000000001E-8</v>
+      </c>
+      <c r="P55" s="10">
         <f t="shared" si="10"/>
         <v>1.2716600000000001E-8</v>
       </c>
-      <c r="P55" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2716600000000001E-8</v>
-      </c>
       <c r="Q55" s="9">
-        <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J55,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R55" s="9">
-        <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R55)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R55)</f>
         <v>+III</v>
       </c>
       <c r="T55" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
         <v>8.3426499999999996E-8</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.3426499999999996E-8</v>
       </c>
       <c r="K56" s="32" t="str">
@@ -13803,35 +13803,35 @@
         <v>+III</v>
       </c>
       <c r="M56" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999991657349996</v>
+      </c>
+      <c r="N56" s="10">
         <f t="shared" si="8"/>
         <v>0.99999991657349996</v>
       </c>
-      <c r="N56" s="10">
+      <c r="O56" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999991657349996</v>
-      </c>
-      <c r="O56" s="10">
+        <v>1.6685299999999999E-7</v>
+      </c>
+      <c r="P56" s="10">
         <f t="shared" si="10"/>
         <v>1.6685299999999999E-7</v>
       </c>
-      <c r="P56" s="10">
-        <f t="shared" si="11"/>
-        <v>1.6685299999999999E-7</v>
-      </c>
       <c r="Q56" s="9">
-        <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J56,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R56" s="9">
-        <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R56)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R56)</f>
         <v>+III</v>
       </c>
       <c r="T56" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
         <v>4.9951600000000001E-8</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.9951600000000001E-8</v>
       </c>
       <c r="K57" s="32" t="str">
@@ -13867,35 +13867,35 @@
         <v>+III</v>
       </c>
       <c r="M57" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999995004840003</v>
+      </c>
+      <c r="N57" s="10">
         <f t="shared" si="8"/>
         <v>0.99999995004840003</v>
       </c>
-      <c r="N57" s="10">
+      <c r="O57" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999995004840003</v>
-      </c>
-      <c r="O57" s="10">
+        <v>9.9903200000000002E-8</v>
+      </c>
+      <c r="P57" s="10">
         <f t="shared" si="10"/>
         <v>9.9903200000000002E-8</v>
       </c>
-      <c r="P57" s="10">
-        <f t="shared" si="11"/>
-        <v>9.9903200000000002E-8</v>
-      </c>
       <c r="Q57" s="9">
-        <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J57,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R57" s="9">
-        <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R57)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R57)</f>
         <v>+III</v>
       </c>
       <c r="T57" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
         <v>1.5906899999999999E-8</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5906899999999999E-8</v>
       </c>
       <c r="K58" s="32" t="str">
@@ -13931,35 +13931,35 @@
         <v>+III</v>
       </c>
       <c r="M58" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999998409309998</v>
+      </c>
+      <c r="N58" s="10">
         <f t="shared" si="8"/>
         <v>0.99999998409309998</v>
       </c>
-      <c r="N58" s="10">
+      <c r="O58" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999998409309998</v>
-      </c>
-      <c r="O58" s="10">
+        <v>3.1813799999999999E-8</v>
+      </c>
+      <c r="P58" s="10">
         <f t="shared" si="10"/>
         <v>3.1813799999999999E-8</v>
       </c>
-      <c r="P58" s="10">
-        <f t="shared" si="11"/>
-        <v>3.1813799999999999E-8</v>
-      </c>
       <c r="Q58" s="9">
-        <f t="array" ref="Q58">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J58,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q58">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J58,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R58" s="9">
-        <f>IFERROR(MATCH($Q58,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q58,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R58)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R58)</f>
         <v>+III</v>
       </c>
       <c r="T58" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K59" s="32" t="str">
@@ -13993,35 +13993,35 @@
         <v>NR</v>
       </c>
       <c r="M59" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N59" s="10">
+      <c r="O59" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P59" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q59" s="9">
-        <f t="array" ref="Q59">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J59,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q59">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J59,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R59" s="9">
-        <f>IFERROR(MATCH($Q59,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q59,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R59)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R59)</f>
         <v>+III</v>
       </c>
       <c r="T59" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,7 +14049,7 @@
         <v>9.1383000000000002E-9</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.1383000000000002E-9</v>
       </c>
       <c r="K60" s="32" t="str">
@@ -14057,35 +14057,35 @@
         <v>+III</v>
       </c>
       <c r="M60" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999086169999</v>
+      </c>
+      <c r="N60" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999086169999</v>
       </c>
-      <c r="N60" s="10">
+      <c r="O60" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999086169999</v>
-      </c>
-      <c r="O60" s="10">
+        <v>1.82766E-8</v>
+      </c>
+      <c r="P60" s="10">
         <f t="shared" si="10"/>
         <v>1.82766E-8</v>
       </c>
-      <c r="P60" s="10">
-        <f t="shared" si="11"/>
-        <v>1.82766E-8</v>
-      </c>
       <c r="Q60" s="9">
-        <f t="array" ref="Q60">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J60,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q60">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J60,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R60" s="9">
-        <f>IFERROR(MATCH($Q60,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q60,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R60)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R60)</f>
         <v>+III</v>
       </c>
       <c r="T60" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
         <v>1.4882800000000001E-8</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4882800000000001E-8</v>
       </c>
       <c r="K61" s="32" t="str">
@@ -14121,35 +14121,35 @@
         <v>+III</v>
       </c>
       <c r="M61" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999998511720001</v>
+      </c>
+      <c r="N61" s="10">
         <f t="shared" si="8"/>
         <v>0.99999998511720001</v>
       </c>
-      <c r="N61" s="10">
+      <c r="O61" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999998511720001</v>
-      </c>
-      <c r="O61" s="10">
+        <v>2.9765600000000002E-8</v>
+      </c>
+      <c r="P61" s="10">
         <f t="shared" si="10"/>
         <v>2.9765600000000002E-8</v>
       </c>
-      <c r="P61" s="10">
-        <f t="shared" si="11"/>
-        <v>2.9765600000000002E-8</v>
-      </c>
       <c r="Q61" s="9">
-        <f t="array" ref="Q61">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J61,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q61">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J61,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R61" s="9">
-        <f>IFERROR(MATCH($Q61,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q61,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R61)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R61)</f>
         <v>+III</v>
       </c>
       <c r="T61" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="32" t="str">
@@ -14183,35 +14183,35 @@
         <v>NR</v>
       </c>
       <c r="M62" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N62" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N62" s="10">
+      <c r="O62" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P62" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q62" s="9">
-        <f t="array" ref="Q62">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J62,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q62">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J62,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R62" s="9">
-        <f>IFERROR(MATCH($Q62,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q62,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R62)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R62)</f>
         <v>+III</v>
       </c>
       <c r="T62" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
         <v>1.20779E-8</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.20779E-8</v>
       </c>
       <c r="K63" s="32" t="str">
@@ -14247,35 +14247,35 @@
         <v>+III</v>
       </c>
       <c r="M63" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999998792209999</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999998792209999</v>
       </c>
       <c r="O63" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.41558E-8</v>
       </c>
       <c r="P63" s="10">
+        <f t="shared" si="10"/>
+        <v>2.41558E-8</v>
+      </c>
+      <c r="Q63" s="9">
+        <f t="array" ref="Q63">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J63,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R63" s="9">
+        <f>IFERROR(MATCH($Q63,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S63" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R63)</f>
+        <v>+III</v>
+      </c>
+      <c r="T63" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>2.41558E-8</v>
-      </c>
-      <c r="Q63" s="9">
-        <f t="array" ref="Q63">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J63,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R63" s="9">
-        <f>IFERROR(MATCH($Q63,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S63" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R63)</f>
-        <v>+III</v>
-      </c>
-      <c r="T63" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
         <v>2.1064100000000001E-8</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1064100000000001E-8</v>
       </c>
       <c r="K64" s="32" t="str">
@@ -14311,35 +14311,35 @@
         <v>+III</v>
       </c>
       <c r="M64" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999997893589998</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999997893589998</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.2128200000000003E-8</v>
       </c>
       <c r="P64" s="10">
+        <f t="shared" si="10"/>
+        <v>4.2128200000000003E-8</v>
+      </c>
+      <c r="Q64" s="9">
+        <f t="array" ref="Q64">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J64,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R64" s="9">
+        <f>IFERROR(MATCH($Q64,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S64" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R64)</f>
+        <v>+III</v>
+      </c>
+      <c r="T64" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>4.2128200000000003E-8</v>
-      </c>
-      <c r="Q64" s="9">
-        <f t="array" ref="Q64">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J64,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R64" s="9">
-        <f>IFERROR(MATCH($Q64,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S64" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R64)</f>
-        <v>+III</v>
-      </c>
-      <c r="T64" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14367,7 +14367,7 @@
         <v>2.8099799999999999E-8</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8099799999999999E-8</v>
       </c>
       <c r="K65" s="32" t="str">
@@ -14375,35 +14375,35 @@
         <v>+III</v>
       </c>
       <c r="M65" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999997190019996</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999997190019996</v>
       </c>
       <c r="O65" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.6199599999999999E-8</v>
       </c>
       <c r="P65" s="10">
+        <f t="shared" si="10"/>
+        <v>5.6199599999999999E-8</v>
+      </c>
+      <c r="Q65" s="9">
+        <f t="array" ref="Q65">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J65,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R65" s="9">
+        <f>IFERROR(MATCH($Q65,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S65" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R65)</f>
+        <v>+III</v>
+      </c>
+      <c r="T65" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>5.6199599999999999E-8</v>
-      </c>
-      <c r="Q65" s="9">
-        <f t="array" ref="Q65">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J65,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R65" s="9">
-        <f>IFERROR(MATCH($Q65,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S65" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R65)</f>
-        <v>+III</v>
-      </c>
-      <c r="T65" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
         <v>2.79756E-8</v>
       </c>
       <c r="J66" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.79756E-8</v>
       </c>
       <c r="K66" s="32" t="str">
@@ -14439,35 +14439,35 @@
         <v>+III</v>
       </c>
       <c r="M66" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999997202440005</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999997202440005</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.59512E-8</v>
       </c>
       <c r="P66" s="10">
+        <f t="shared" si="10"/>
+        <v>5.59512E-8</v>
+      </c>
+      <c r="Q66" s="9">
+        <f t="array" ref="Q66">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J66,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R66" s="9">
+        <f>IFERROR(MATCH($Q66,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S66" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R66)</f>
+        <v>+III</v>
+      </c>
+      <c r="T66" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>5.59512E-8</v>
-      </c>
-      <c r="Q66" s="9">
-        <f t="array" ref="Q66">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J66,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R66" s="9">
-        <f>IFERROR(MATCH($Q66,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S66" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R66)</f>
-        <v>+III</v>
-      </c>
-      <c r="T66" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
         <v>1.2314800000000001E-8</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2314800000000001E-8</v>
       </c>
       <c r="K67" s="32" t="str">
@@ -14503,35 +14503,35 @@
         <v>+III</v>
       </c>
       <c r="M67" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999998768520004</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999998768520004</v>
       </c>
       <c r="O67" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.4629600000000001E-8</v>
       </c>
       <c r="P67" s="10">
+        <f t="shared" si="10"/>
+        <v>2.4629600000000001E-8</v>
+      </c>
+      <c r="Q67" s="9">
+        <f t="array" ref="Q67">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J67,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R67" s="9">
+        <f>IFERROR(MATCH($Q67,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S67" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R67)</f>
+        <v>+III</v>
+      </c>
+      <c r="T67" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>2.4629600000000001E-8</v>
-      </c>
-      <c r="Q67" s="9">
-        <f t="array" ref="Q67">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J67,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R67" s="9">
-        <f>IFERROR(MATCH($Q67,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S67" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R67)</f>
-        <v>+III</v>
-      </c>
-      <c r="T67" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14559,7 +14559,7 @@
         <v>2.32604E-8</v>
       </c>
       <c r="J68" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.32604E-8</v>
       </c>
       <c r="K68" s="32" t="str">
@@ -14567,35 +14567,35 @@
         <v>+III</v>
       </c>
       <c r="M68" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999997673959995</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999997673959995</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.6520799999999999E-8</v>
       </c>
       <c r="P68" s="10">
+        <f t="shared" si="10"/>
+        <v>4.6520799999999999E-8</v>
+      </c>
+      <c r="Q68" s="9">
+        <f t="array" ref="Q68">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J68,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R68" s="9">
+        <f>IFERROR(MATCH($Q68,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S68" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R68)</f>
+        <v>+III</v>
+      </c>
+      <c r="T68" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>4.6520799999999999E-8</v>
-      </c>
-      <c r="Q68" s="9">
-        <f t="array" ref="Q68">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J68,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R68" s="9">
-        <f>IFERROR(MATCH($Q68,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S68" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R68)</f>
-        <v>+III</v>
-      </c>
-      <c r="T68" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
         <v>1.6673400000000002E-8</v>
       </c>
       <c r="J69" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6673400000000002E-8</v>
       </c>
       <c r="K69" s="32" t="str">
@@ -14631,35 +14631,35 @@
         <v>+III</v>
       </c>
       <c r="M69" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999998332660001</v>
       </c>
       <c r="N69" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999998332660001</v>
       </c>
       <c r="O69" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.3346800000000003E-8</v>
       </c>
       <c r="P69" s="10">
+        <f t="shared" si="10"/>
+        <v>3.3346800000000003E-8</v>
+      </c>
+      <c r="Q69" s="9">
+        <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J69,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R69" s="9">
+        <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S69" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R69)</f>
+        <v>+III</v>
+      </c>
+      <c r="T69" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>3.3346800000000003E-8</v>
-      </c>
-      <c r="Q69" s="9">
-        <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J69,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R69" s="9">
-        <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S69" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R69)</f>
-        <v>+III</v>
-      </c>
-      <c r="T69" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14826,7 +14826,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14987,15 +14987,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="33">
-        <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <f>IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="15">
-        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="15">
@@ -15003,19 +15003,19 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
       <c r="T11" s="17" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15309,35 +15309,35 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11" si="4">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T23" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
-        <f t="shared" ref="J12" si="4">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
+        <f t="shared" ref="J12" si="6">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>4.791086906725913E-22</v>
       </c>
       <c r="K12" s="32" t="str">
@@ -15373,35 +15373,35 @@
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12:M23" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12:N23" si="8">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O12:O23" si="9">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>1.4373260720177739E-21</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P23" si="10">IF(J12="-",0,O12)</f>
         <v>1.4373260720177739E-21</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
-        <f t="shared" ref="J13:J23" si="7">IF($E13="Nee",0,IF(ISNUMBER(I13),I13,IF(ISNUMBER(G13),G13,"-")))</f>
+        <f t="shared" ref="J13:J23" si="11">IF($E13="Nee",0,IF(ISNUMBER(I13),I13,IF(ISNUMBER(G13),G13,"-")))</f>
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
@@ -15435,35 +15435,35 @@
         <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M28" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N28" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O28" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
+        <v>+III</v>
+      </c>
+      <c r="T13" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5707005292946642E-7</v>
       </c>
       <c r="K14" s="32" t="str">
@@ -15499,35 +15499,35 @@
         <v>+III</v>
       </c>
       <c r="M14" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999984292994704</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>0.99999984292994704</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999984292994704</v>
-      </c>
-      <c r="O14" s="10">
+        <v>4.7121015878839925E-7</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="10"/>
         <v>4.7121015878839925E-7</v>
       </c>
-      <c r="P14" s="10">
-        <f t="shared" ref="P14:P28" si="11">IF(J14="-",0,O14)</f>
-        <v>4.7121015878839925E-7</v>
-      </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
@@ -15561,35 +15561,35 @@
         <v>NR</v>
       </c>
       <c r="M15" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.034287803266499E-10</v>
       </c>
       <c r="K16" s="32" t="str">
@@ -15625,35 +15625,35 @@
         <v>+III</v>
       </c>
       <c r="M16" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999939657125</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999939657125</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999939657125</v>
-      </c>
-      <c r="O16" s="10">
+        <v>1.8102863409799497E-9</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
         <v>1.8102863409799497E-9</v>
       </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
-        <v>1.8102863409799497E-9</v>
-      </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
@@ -15687,35 +15687,35 @@
         <v>NR</v>
       </c>
       <c r="M17" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.1200967763614776E-5</v>
       </c>
       <c r="K18" s="32" t="str">
@@ -15751,35 +15751,35 @@
         <v>+I</v>
       </c>
       <c r="M18" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99998879903223636</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>0.99998879903223636</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99998879903223636</v>
-      </c>
-      <c r="O18" s="10">
+        <v>3.3602903290844325E-5</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
         <v>3.3602903290844325E-5</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
-        <v>3.3602903290844325E-5</v>
-      </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>+I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
@@ -15813,35 +15813,35 @@
         <v>NR</v>
       </c>
       <c r="M19" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15869,7 +15869,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5162713021755284E-27</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -15877,35 +15877,35 @@
         <v>+III</v>
       </c>
       <c r="M20" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>1.0548813906526586E-26</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="10"/>
         <v>1.0548813906526586E-26</v>
       </c>
-      <c r="P20" s="10">
-        <f t="shared" si="11"/>
-        <v>1.0548813906526586E-26</v>
-      </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -15939,35 +15939,35 @@
         <v>NR</v>
       </c>
       <c r="M21" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.3920865202336532E-81</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -16003,35 +16003,35 @@
         <v>+III</v>
       </c>
       <c r="M22" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>7.1762595607009601E-81</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="10"/>
         <v>7.1762595607009601E-81</v>
       </c>
-      <c r="P22" s="10">
-        <f t="shared" si="11"/>
-        <v>7.1762595607009601E-81</v>
-      </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
@@ -16065,35 +16065,35 @@
         <v>NR</v>
       </c>
       <c r="M23" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16108,38 +16108,14 @@
       <c r="I24" s="26"/>
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
-      <c r="M24" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R24)</f>
-        <v>+III</v>
-      </c>
-      <c r="T24" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -16152,38 +16128,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
-      <c r="M25" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R25)</f>
-        <v>+III</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -16196,38 +16148,14 @@
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
-      <c r="M26" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R26)</f>
-        <v>+III</v>
-      </c>
-      <c r="T26" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -16240,38 +16168,14 @@
       <c r="I27" s="26"/>
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
-      <c r="M27" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R27)</f>
-        <v>+III</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
@@ -16284,38 +16188,14 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R28)</f>
-        <v>+III</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
@@ -16440,7 +16320,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K11:K23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16464,7 +16344,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -16601,35 +16481,35 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M28" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N28" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O28" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11" si="4">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T23" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -16655,7 +16535,7 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
-        <f t="shared" ref="J12:J23" si="4">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
+        <f t="shared" ref="J12:J23" si="6">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
@@ -16663,35 +16543,35 @@
         <v>NR</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12:M23" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12:N23" si="8">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O12:O23" si="9">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P28" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P23" si="10">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16717,7 +16597,7 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
@@ -16725,35 +16605,35 @@
         <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
+        <v>+III</v>
+      </c>
+      <c r="T13" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16779,7 +16659,7 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
@@ -16787,35 +16667,35 @@
         <v>NR</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
+        <v>+III</v>
+      </c>
+      <c r="T14" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R14)</f>
-        <v>+III</v>
-      </c>
-      <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16841,7 +16721,7 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
@@ -16849,35 +16729,35 @@
         <v>NR</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
+        <v>+III</v>
+      </c>
+      <c r="T15" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16905,7 +16785,7 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2551587022663145E-6</v>
       </c>
       <c r="K16" s="32" t="str">
@@ -16913,35 +16793,35 @@
         <v>+II</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.2551587022663145E-6</v>
       </c>
       <c r="P16" s="10">
+        <f t="shared" si="10"/>
+        <v>1.2551587022663145E-6</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333333E-6</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+II</v>
+      </c>
+      <c r="T16" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>1.2551587022663145E-6</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333333E-6</v>
-      </c>
-      <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>2</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R16)</f>
-        <v>+II</v>
-      </c>
-      <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16967,7 +16847,7 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
@@ -16975,35 +16855,35 @@
         <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
+        <v>+III</v>
+      </c>
+      <c r="T17" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R17)</f>
-        <v>+III</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17031,7 +16911,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7061003152408926E-7</v>
       </c>
       <c r="K18" s="32" t="str">
@@ -17039,35 +16919,35 @@
         <v>+II</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99999962938996845</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.99999962938996845</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.7061003152408926E-7</v>
       </c>
       <c r="P18" s="10">
+        <f t="shared" si="10"/>
+        <v>3.7061003152408926E-7</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333333E-6</v>
+      </c>
+      <c r="R18" s="9">
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+        <v>+II</v>
+      </c>
+      <c r="T18" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>3.7061003152408926E-7</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333333E-6</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>2</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R18)</f>
-        <v>+II</v>
-      </c>
-      <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17093,7 +16973,7 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
@@ -17101,35 +16981,35 @@
         <v>NR</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P19" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
+        <v>+III</v>
+      </c>
+      <c r="T19" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R19)</f>
-        <v>+III</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17155,7 +17035,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -17163,35 +17043,35 @@
         <v>NR</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P20" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
+        <v>+III</v>
+      </c>
+      <c r="T20" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R20)</f>
-        <v>+III</v>
-      </c>
-      <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17217,7 +17097,7 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -17225,35 +17105,35 @@
         <v>NR</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
+        <v>+III</v>
+      </c>
+      <c r="T21" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R21)</f>
-        <v>+III</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17279,7 +17159,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -17287,35 +17167,35 @@
         <v>NR</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
+        <v>+III</v>
+      </c>
+      <c r="T22" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R22)</f>
-        <v>+III</v>
-      </c>
-      <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17341,7 +17221,7 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
@@ -17349,35 +17229,35 @@
         <v>NR</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P23" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
+        <v>+III</v>
+      </c>
+      <c r="T23" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R23)</f>
-        <v>+III</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17392,38 +17272,14 @@
       <c r="I24" s="26"/>
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
-      <c r="M24" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R24)</f>
-        <v>+III</v>
-      </c>
-      <c r="T24" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
@@ -17436,38 +17292,14 @@
       <c r="I25" s="26"/>
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
-      <c r="M25" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R25)</f>
-        <v>+III</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -17480,38 +17312,14 @@
       <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
-      <c r="M26" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R26)</f>
-        <v>+III</v>
-      </c>
-      <c r="T26" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -17524,38 +17332,14 @@
       <c r="I27" s="26"/>
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
-      <c r="M27" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R27)</f>
-        <v>+III</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
@@ -17568,38 +17352,14 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R28)</f>
-        <v>+III</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
@@ -17724,7 +17484,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K11:K23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17885,35 +17645,35 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>IF(J11="-",0,O11)</f>
+        <f t="shared" ref="P11" si="4">IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T23" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -17939,7 +17699,7 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
-        <f t="shared" ref="J12" si="3">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
+        <f t="shared" ref="J12" si="6">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
@@ -17947,35 +17707,35 @@
         <v>NR</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M12:M23" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12:N23" si="8">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O13" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O23" si="9">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P23" si="10">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T23" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18001,7 +17761,7 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
-        <f t="shared" ref="J13:J23" si="7">IF($E13="Nee",0,IF(ISNUMBER(I13),I13,IF(ISNUMBER(G13),G13,"-")))</f>
+        <f t="shared" ref="J13:J23" si="11">IF($E13="Nee",0,IF(ISNUMBER(I13),I13,IF(ISNUMBER(G13),G13,"-")))</f>
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
@@ -18009,35 +17769,35 @@
         <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M23" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N23" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
+        <v>+III</v>
+      </c>
+      <c r="T13" s="12" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R13)</f>
-        <v>+III</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -18063,7 +17823,7 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
@@ -18071,35 +17831,35 @@
         <v>NR</v>
       </c>
       <c r="M14" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" ref="O14:O23" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P23" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18125,7 +17885,7 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
@@ -18133,35 +17893,35 @@
         <v>NR</v>
       </c>
       <c r="M15" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18189,7 +17949,7 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6197976652558446E-9</v>
       </c>
       <c r="K16" s="32" t="str">
@@ -18197,35 +17957,35 @@
         <v>+III</v>
       </c>
       <c r="M16" s="31">
+        <f t="shared" si="7"/>
+        <v>0.99999999638020232</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>0.99999999638020232</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999638020232</v>
-      </c>
-      <c r="O16" s="10">
+        <v>7.2395953305116892E-9</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
         <v>7.2395953305116892E-9</v>
       </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
-        <v>7.2395953305116892E-9</v>
-      </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$19))</f>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18251,7 +18011,7 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
@@ -18259,35 +18019,35 @@
         <v>NR</v>
       </c>
       <c r="M17" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18313,7 +18073,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
@@ -18321,35 +18081,35 @@
         <v>NR</v>
       </c>
       <c r="M18" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18375,7 +18135,7 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
@@ -18383,35 +18143,35 @@
         <v>NR</v>
       </c>
       <c r="M19" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18437,7 +18197,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -18445,35 +18205,35 @@
         <v>NR</v>
       </c>
       <c r="M20" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P20" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18499,7 +18259,7 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -18507,35 +18267,35 @@
         <v>NR</v>
       </c>
       <c r="M21" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18561,7 +18321,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -18569,35 +18329,35 @@
         <v>NR</v>
       </c>
       <c r="M22" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P22" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18623,7 +18383,7 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
@@ -18631,35 +18391,35 @@
         <v>NR</v>
       </c>
       <c r="M23" s="31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P23" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="Q23" s="9">
-        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$19&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$19))</f>
-        <v>3.3333333333333335E-7</v>
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$19),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$19,R23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF6343-43BE-4E74-A631-55D959824E92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D2AB8-A2A2-4CF2-BB57-D9BD80419B16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -25,6 +25,9 @@
     <sheet name="Veiligheidsoordeel" sheetId="7" r:id="rId10"/>
     <sheet name="Gecombineerd vakoordeel" sheetId="8" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Gecombineerd vakoordeel'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2431,7 +2434,7 @@
   <dimension ref="B1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E106"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,6 +2443,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2447,7 +2451,7 @@
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="69" t="s">
         <v>179</v>
       </c>
@@ -2480,10 +2484,10 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.16564654600000001</v>
       </c>
-      <c r="D3" s="22" t="str">
+      <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>+III</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I3" s="4" t="str">
@@ -2524,10 +2528,10 @@
       <c r="B4" s="8">
         <v>0.16564654600000001</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>0.190709198</v>
       </c>
-      <c r="D4" s="23" t="str">
+      <c r="D4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>+III</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I4" s="9" t="str">
@@ -2568,10 +2572,10 @@
       <c r="B5" s="8">
         <v>0.190709198</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>0.21</v>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>+III</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I5" s="9" t="str">
@@ -2612,10 +2616,10 @@
       <c r="B6" s="8">
         <v>0.21</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>0.22009848399999998</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>+III</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I6" s="9" t="str">
@@ -2656,10 +2660,10 @@
       <c r="B7" s="8">
         <v>0.22009848399999998</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>0.23085095799999999</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>+III</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -2700,10 +2704,10 @@
       <c r="B8" s="8">
         <v>0.23085095799999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>0.24</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>+III</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -2744,10 +2748,10 @@
       <c r="B9" s="8">
         <v>0.24</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>0.240850958</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>+III</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I9" s="9" t="str">
@@ -2788,10 +2792,10 @@
       <c r="B10" s="8">
         <v>0.240850958</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="12">
         <v>0.34</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>+III</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I10" s="9" t="str">
@@ -2832,10 +2836,10 @@
       <c r="B11" s="8">
         <v>0.34</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="12">
         <v>0.342187662</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>+III</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I11" s="9" t="str">
@@ -2876,10 +2880,10 @@
       <c r="B12" s="8">
         <v>0.342187662</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>0.91</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>+III</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -2920,10 +2924,10 @@
       <c r="B13" s="8">
         <v>0.91</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <v>0.995927067</v>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>+III</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -2964,10 +2968,10 @@
       <c r="B14" s="8">
         <v>0.995927067</v>
       </c>
-      <c r="C14" s="9">
-        <v>0.99592706799999997</v>
-      </c>
-      <c r="D14" s="23" t="str">
+      <c r="C14" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="D14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>+III</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I14" s="9" t="str">
@@ -3006,12 +3010,12 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
-        <v>0.99592706799999997</v>
-      </c>
-      <c r="C15" s="9">
         <v>1.44</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="C15" s="12">
+        <v>1.545093896</v>
+      </c>
+      <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
@@ -3028,8 +3032,8 @@
         <v>+III</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+II</v>
       </c>
       <c r="I15" s="9" t="str">
         <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3050,29 +3054,29 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>1.44</v>
-      </c>
-      <c r="C16" s="9">
         <v>1.545093896</v>
       </c>
-      <c r="D16" s="23" t="str">
+      <c r="C16" s="12">
+        <v>1.812946862</v>
+      </c>
+      <c r="D16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I16" s="9" t="str">
@@ -3094,12 +3098,12 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
-        <v>1.545093896</v>
-      </c>
-      <c r="C17" s="9">
         <v>1.812946862</v>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="C17" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>+III</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I17" s="9" t="str">
@@ -3138,12 +3142,12 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>1.812946862</v>
-      </c>
-      <c r="C18" s="9">
         <v>1.96</v>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="C18" s="12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>+III</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I18" s="9" t="str">
@@ -3182,12 +3186,12 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
-        <v>1.96</v>
-      </c>
-      <c r="C19" s="9">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="C19" s="12">
+        <v>2.5196520410000001</v>
+      </c>
+      <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
@@ -3204,8 +3208,8 @@
         <v>+III</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3226,29 +3230,29 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C20" s="9">
         <v>2.5196520410000001</v>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="C20" s="12">
+        <v>3.01</v>
+      </c>
+      <c r="D20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>+I</v>
       </c>
       <c r="E20" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>+I</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>+I</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I20" s="9" t="str">
@@ -3270,12 +3274,12 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>2.5196520410000001</v>
-      </c>
-      <c r="C21" s="9">
         <v>3.01</v>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="C21" s="12">
+        <v>3.313767881</v>
+      </c>
+      <c r="D21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
@@ -3292,8 +3296,8 @@
         <v>+III</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+II</v>
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3314,12 +3318,12 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>3.01</v>
-      </c>
-      <c r="C22" s="9">
         <v>3.313767881</v>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="C22" s="12">
+        <v>3.327915993</v>
+      </c>
+      <c r="D22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>+III</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I22" s="9" t="str">
@@ -3358,29 +3362,29 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <v>3.313767881</v>
-      </c>
-      <c r="C23" s="9">
         <v>3.327915993</v>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="C23" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="D23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>-II</v>
       </c>
       <c r="E23" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>-II</v>
       </c>
       <c r="F23" s="9" t="str">
         <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>-II</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I23" s="9" t="str">
@@ -3402,12 +3406,12 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
-        <v>3.327915993</v>
-      </c>
-      <c r="C24" s="9">
         <v>3.54</v>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="C24" s="12">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>+III</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I24" s="9" t="str">
@@ -3446,12 +3450,12 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
-        <v>3.54</v>
-      </c>
-      <c r="C25" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D25" s="23" t="str">
+      <c r="C25" s="12">
+        <v>4.3705976250000003</v>
+      </c>
+      <c r="D25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3468,8 +3472,8 @@
         <v>+III</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I25" s="9" t="str">
         <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3490,12 +3494,12 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="C26" s="9">
         <v>4.3705976250000003</v>
       </c>
-      <c r="D26" s="23" t="str">
+      <c r="C26" s="12">
+        <v>4.58</v>
+      </c>
+      <c r="D26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>+III</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I26" s="9" t="str">
@@ -3534,12 +3538,12 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <v>4.3705976250000003</v>
-      </c>
-      <c r="C27" s="9">
         <v>4.58</v>
       </c>
-      <c r="D27" s="23" t="str">
+      <c r="C27" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>+III</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I27" s="9" t="str">
@@ -3578,12 +3582,12 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
-        <v>4.58</v>
-      </c>
-      <c r="C28" s="9">
         <v>5.1100000000000003</v>
       </c>
-      <c r="D28" s="23" t="str">
+      <c r="C28" s="12">
+        <v>5.64</v>
+      </c>
+      <c r="D28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>+III</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I28" s="9" t="str">
@@ -3622,12 +3626,12 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="C29" s="9">
         <v>5.64</v>
       </c>
-      <c r="D29" s="23" t="str">
+      <c r="C29" s="12">
+        <v>5.6951114260000004</v>
+      </c>
+      <c r="D29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>+III</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I29" s="9" t="str">
@@ -3666,12 +3670,12 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
-        <v>5.64</v>
-      </c>
-      <c r="C30" s="9">
         <v>5.6951114260000004</v>
       </c>
-      <c r="D30" s="23" t="str">
+      <c r="C30" s="12">
+        <v>6.24</v>
+      </c>
+      <c r="D30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3685,10 +3689,10 @@
       </c>
       <c r="G30" s="9" t="str">
         <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I30" s="9" t="str">
@@ -3710,12 +3714,12 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>5.6951114260000004</v>
-      </c>
-      <c r="C31" s="9">
         <v>6.24</v>
       </c>
-      <c r="D31" s="23" t="str">
+      <c r="C31" s="12">
+        <v>6.84</v>
+      </c>
+      <c r="D31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>+II</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
@@ -3754,12 +3758,12 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
-        <v>6.24</v>
-      </c>
-      <c r="C32" s="9">
         <v>6.84</v>
       </c>
-      <c r="D32" s="23" t="str">
+      <c r="C32" s="12">
+        <v>7.41</v>
+      </c>
+      <c r="D32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>+II</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
@@ -3798,12 +3802,12 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
-        <v>6.84</v>
-      </c>
-      <c r="C33" s="9">
         <v>7.41</v>
       </c>
-      <c r="D33" s="23" t="str">
+      <c r="C33" s="12">
+        <v>7.94</v>
+      </c>
+      <c r="D33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>+II</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
@@ -3842,12 +3846,12 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
-        <v>7.41</v>
-      </c>
-      <c r="C34" s="9">
         <v>7.94</v>
       </c>
-      <c r="D34" s="23" t="str">
+      <c r="C34" s="12">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>+II</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I34" s="9" t="str">
@@ -3886,12 +3890,12 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <v>7.94</v>
-      </c>
-      <c r="C35" s="9">
         <v>8.0399999999999991</v>
       </c>
-      <c r="D35" s="23" t="str">
+      <c r="C35" s="12">
+        <v>8.2464557510000009</v>
+      </c>
+      <c r="D35" s="12" t="str">
         <f t="shared" ref="D35:D66" si="2">IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
@@ -3908,7 +3912,7 @@
         <v>+II</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I35" s="9" t="str">
@@ -3930,29 +3934,29 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="C36" s="9">
         <v>8.2464557510000009</v>
       </c>
-      <c r="D36" s="23" t="str">
+      <c r="C36" s="12">
+        <v>8.2505978840000012</v>
+      </c>
+      <c r="D36" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-II</v>
+        <v>-I</v>
       </c>
       <c r="E36" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-II</v>
+        <v>-I</v>
       </c>
       <c r="F36" s="9" t="str">
         <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>-I</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I36" s="9" t="str">
@@ -3974,12 +3978,12 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
-        <v>8.2464557510000009</v>
-      </c>
-      <c r="C37" s="9">
         <v>8.2505978840000012</v>
       </c>
-      <c r="D37" s="23" t="str">
+      <c r="C37" s="12">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-I</v>
       </c>
@@ -3993,10 +3997,10 @@
       </c>
       <c r="G37" s="9" t="str">
         <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+III</v>
       </c>
       <c r="I37" s="9" t="str">
@@ -4018,12 +4022,12 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
-        <v>8.2505978840000012</v>
-      </c>
-      <c r="C38" s="9">
         <v>8.5399999999999991</v>
       </c>
-      <c r="D38" s="23" t="str">
+      <c r="C38" s="12">
+        <v>8.91</v>
+      </c>
+      <c r="D38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-I</v>
       </c>
@@ -4040,8 +4044,8 @@
         <v>+III</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+II</v>
       </c>
       <c r="I38" s="9" t="str">
         <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4062,12 +4066,12 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="C39" s="9">
         <v>8.91</v>
       </c>
-      <c r="D39" s="23" t="str">
+      <c r="C39" s="12">
+        <v>8.9463643600000005</v>
+      </c>
+      <c r="D39" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-I</v>
       </c>
@@ -4084,7 +4088,7 @@
         <v>+III</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I39" s="9" t="str">
@@ -4106,29 +4110,29 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
-        <v>8.91</v>
-      </c>
-      <c r="C40" s="9">
         <v>8.9463643600000005</v>
       </c>
-      <c r="D40" s="23" t="str">
+      <c r="C40" s="12">
+        <v>9.2968308060000009</v>
+      </c>
+      <c r="D40" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-I</v>
+        <v>+II</v>
       </c>
       <c r="E40" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-I</v>
+        <v>+II</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>+II</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I40" s="9" t="str">
@@ -4150,12 +4154,12 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
-        <v>8.9463643600000005</v>
-      </c>
-      <c r="C41" s="9">
         <v>9.2968308060000009</v>
       </c>
-      <c r="D41" s="23" t="str">
+      <c r="C41" s="12">
+        <v>9.34</v>
+      </c>
+      <c r="D41" s="12" t="str">
         <f t="shared" si="2"/>
         <v>+II</v>
       </c>
@@ -4165,14 +4169,14 @@
       </c>
       <c r="F41" s="9" t="str">
         <f t="array" ref="F41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="array" ref="G41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H41" s="9" t="str">
-        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I41" s="9" t="str">
@@ -4194,18 +4198,18 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
-        <v>9.2968308060000009</v>
-      </c>
-      <c r="C42" s="9">
-        <v>9.296830807000001</v>
-      </c>
-      <c r="D42" s="23" t="str">
+        <v>9.34</v>
+      </c>
+      <c r="C42" s="12">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D42" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E42" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F42" s="9" t="str">
         <f t="array" ref="F42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4216,8 +4220,8 @@
         <v>+III</v>
       </c>
       <c r="H42" s="9" t="str">
-        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I42" s="9" t="str">
         <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4238,12 +4242,12 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
-        <v>9.296830807000001</v>
-      </c>
-      <c r="C43" s="9">
-        <v>9.34</v>
-      </c>
-      <c r="D43" s="23" t="str">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="C43" s="12">
+        <v>9.64</v>
+      </c>
+      <c r="D43" s="12" t="str">
         <f t="shared" si="2"/>
         <v>+II</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>+III</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I43" s="9" t="str">
@@ -4282,12 +4286,12 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
-        <v>9.34</v>
-      </c>
-      <c r="C44" s="9">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="D44" s="23" t="str">
+        <v>9.64</v>
+      </c>
+      <c r="C44" s="12">
+        <v>9.76</v>
+      </c>
+      <c r="D44" s="12" t="str">
         <f t="shared" si="2"/>
         <v>+II</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>+III</v>
       </c>
       <c r="H44" s="9" t="str">
-        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
         <v>+II</v>
       </c>
       <c r="I44" s="9" t="str">
@@ -4326,18 +4330,18 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="C45" s="9">
-        <v>9.64</v>
-      </c>
-      <c r="D45" s="23" t="str">
+        <v>9.76</v>
+      </c>
+      <c r="C45" s="12">
+        <v>9.7975727730000006</v>
+      </c>
+      <c r="D45" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E45" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F45" s="9" t="str">
         <f t="array" ref="F45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4348,8 +4352,8 @@
         <v>+III</v>
       </c>
       <c r="H45" s="9" t="str">
-        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I45" s="9" t="str">
         <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4370,30 +4374,30 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
-        <v>9.64</v>
-      </c>
-      <c r="C46" s="9">
-        <v>9.76</v>
-      </c>
-      <c r="D46" s="23" t="str">
+        <v>9.7975727730000006</v>
+      </c>
+      <c r="C46" s="12">
+        <v>10.01</v>
+      </c>
+      <c r="D46" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>-II</v>
       </c>
       <c r="E46" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>-II</v>
       </c>
       <c r="F46" s="9" t="str">
         <f t="array" ref="F46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>-II</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="array" ref="G46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I46" s="9" t="str">
         <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4414,30 +4418,30 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
-        <v>9.76</v>
-      </c>
-      <c r="C47" s="9">
-        <v>9.7975727730000006</v>
-      </c>
-      <c r="D47" s="23" t="str">
+        <v>10.01</v>
+      </c>
+      <c r="C47" s="12">
+        <v>10.59</v>
+      </c>
+      <c r="D47" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+II</v>
+        <v>-II</v>
       </c>
       <c r="E47" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+II</v>
+        <v>-II</v>
       </c>
       <c r="F47" s="9" t="str">
         <f t="array" ref="F47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>-II</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="array" ref="G47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H47" s="9" t="str">
-        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I47" s="9" t="str">
         <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4458,12 +4462,12 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
-        <v>9.7975727730000006</v>
-      </c>
-      <c r="C48" s="9">
-        <v>9.7975727740000007</v>
-      </c>
-      <c r="D48" s="23" t="str">
+        <v>10.59</v>
+      </c>
+      <c r="C48" s="12">
+        <v>11.11</v>
+      </c>
+      <c r="D48" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4480,8 +4484,8 @@
         <v>+III</v>
       </c>
       <c r="H48" s="9" t="str">
-        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4502,12 +4506,12 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
-        <v>9.7975727740000007</v>
-      </c>
-      <c r="C49" s="9">
-        <v>10.01</v>
-      </c>
-      <c r="D49" s="23" t="str">
+        <v>11.11</v>
+      </c>
+      <c r="C49" s="12">
+        <v>11.64</v>
+      </c>
+      <c r="D49" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4524,8 +4528,8 @@
         <v>+III</v>
       </c>
       <c r="H49" s="9" t="str">
-        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4546,12 +4550,12 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
-        <v>10.01</v>
-      </c>
-      <c r="C50" s="9">
-        <v>10.59</v>
-      </c>
-      <c r="D50" s="23" t="str">
+        <v>11.64</v>
+      </c>
+      <c r="C50" s="12">
+        <v>12.16</v>
+      </c>
+      <c r="D50" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4568,8 +4572,8 @@
         <v>+III</v>
       </c>
       <c r="H50" s="9" t="str">
-        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4590,12 +4594,12 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
-        <v>10.59</v>
-      </c>
-      <c r="C51" s="9">
-        <v>11.11</v>
-      </c>
-      <c r="D51" s="23" t="str">
+        <v>12.16</v>
+      </c>
+      <c r="C51" s="12">
+        <v>12.69</v>
+      </c>
+      <c r="D51" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4612,8 +4616,8 @@
         <v>+III</v>
       </c>
       <c r="H51" s="9" t="str">
-        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4634,12 +4638,12 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
-        <v>11.11</v>
-      </c>
-      <c r="C52" s="9">
-        <v>11.64</v>
-      </c>
-      <c r="D52" s="23" t="str">
+        <v>12.69</v>
+      </c>
+      <c r="C52" s="12">
+        <v>13.19</v>
+      </c>
+      <c r="D52" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4656,8 +4660,8 @@
         <v>+III</v>
       </c>
       <c r="H52" s="9" t="str">
-        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I52" s="9" t="str">
         <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4678,12 +4682,12 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
-        <v>11.64</v>
-      </c>
-      <c r="C53" s="9">
-        <v>12.16</v>
-      </c>
-      <c r="D53" s="23" t="str">
+        <v>13.19</v>
+      </c>
+      <c r="C53" s="12">
+        <v>13.197809816000001</v>
+      </c>
+      <c r="D53" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -4700,8 +4704,8 @@
         <v>+III</v>
       </c>
       <c r="H53" s="9" t="str">
-        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I53" s="9" t="str">
         <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4722,30 +4726,30 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
-        <v>12.16</v>
-      </c>
-      <c r="C54" s="9">
-        <v>12.69</v>
-      </c>
-      <c r="D54" s="23" t="str">
+        <v>13.197809816000001</v>
+      </c>
+      <c r="C54" s="12">
+        <v>13.46</v>
+      </c>
+      <c r="D54" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E54" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F54" s="9" t="str">
         <f t="array" ref="F54">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B54,C54),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G54" s="9" t="str">
         <f t="array" ref="G54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H54" s="9" t="str">
-        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I54" s="9" t="str">
         <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4766,30 +4770,30 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
-        <v>12.69</v>
-      </c>
-      <c r="C55" s="9">
-        <v>13.19</v>
-      </c>
-      <c r="D55" s="23" t="str">
+        <v>13.46</v>
+      </c>
+      <c r="C55" s="12">
+        <v>13.84</v>
+      </c>
+      <c r="D55" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E55" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F55" s="9" t="str">
         <f t="array" ref="F55">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B55,C55),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G55" s="9" t="str">
         <f t="array" ref="G55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H55" s="9" t="str">
-        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I55" s="9" t="str">
         <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4810,30 +4814,30 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
-        <v>13.19</v>
-      </c>
-      <c r="C56" s="9">
-        <v>13.197809816000001</v>
-      </c>
-      <c r="D56" s="23" t="str">
+        <v>13.84</v>
+      </c>
+      <c r="C56" s="12">
+        <v>14.06</v>
+      </c>
+      <c r="D56" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E56" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F56" s="9" t="str">
         <f t="array" ref="F56">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B56,C56),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G56" s="9" t="str">
         <f t="array" ref="G56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H56" s="9" t="str">
-        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I56" s="9" t="str">
         <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4854,12 +4858,12 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
-        <v>13.197809816000001</v>
-      </c>
-      <c r="C57" s="9">
-        <v>13.197809817000001</v>
-      </c>
-      <c r="D57" s="23" t="str">
+        <v>14.06</v>
+      </c>
+      <c r="C57" s="12">
+        <v>14.104461709000001</v>
+      </c>
+      <c r="D57" s="12" t="str">
         <f t="shared" si="2"/>
         <v>+0</v>
       </c>
@@ -4876,8 +4880,8 @@
         <v>+III</v>
       </c>
       <c r="H57" s="9" t="str">
-        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I57" s="9" t="str">
         <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4898,30 +4902,30 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
-        <v>13.197809817000001</v>
-      </c>
-      <c r="C58" s="9">
-        <v>13.46</v>
-      </c>
-      <c r="D58" s="23" t="str">
+        <v>14.104461709000001</v>
+      </c>
+      <c r="C58" s="12">
+        <v>14.19</v>
+      </c>
+      <c r="D58" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="E58" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="F58" s="9" t="str">
         <f t="array" ref="F58">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B58,C58),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="G58" s="9" t="str">
         <f t="array" ref="G58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H58" s="9" t="str">
-        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I58" s="9" t="str">
         <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4942,30 +4946,30 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
-        <v>13.46</v>
-      </c>
-      <c r="C59" s="9">
-        <v>13.84</v>
-      </c>
-      <c r="D59" s="23" t="str">
+        <v>14.19</v>
+      </c>
+      <c r="C59" s="12">
+        <v>14.49</v>
+      </c>
+      <c r="D59" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="E59" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="F59" s="9" t="str">
         <f t="array" ref="F59">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B59,C59),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="G59" s="9" t="str">
         <f t="array" ref="G59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H59" s="9" t="str">
-        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I59" s="9" t="str">
         <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4986,30 +4990,30 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
-        <v>13.84</v>
-      </c>
-      <c r="C60" s="9">
-        <v>14.06</v>
-      </c>
-      <c r="D60" s="23" t="str">
+        <v>14.49</v>
+      </c>
+      <c r="C60" s="12">
+        <v>15.02</v>
+      </c>
+      <c r="D60" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="E60" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="F60" s="9" t="str">
         <f t="array" ref="F60">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B60,C60),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="G60" s="9" t="str">
         <f t="array" ref="G60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H60" s="9" t="str">
-        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I60" s="9" t="str">
         <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5030,30 +5034,30 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
-        <v>14.06</v>
-      </c>
-      <c r="C61" s="9">
-        <v>14.104461709000001</v>
-      </c>
-      <c r="D61" s="23" t="str">
+        <v>15.02</v>
+      </c>
+      <c r="C61" s="12">
+        <v>15.54</v>
+      </c>
+      <c r="D61" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="E61" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="F61" s="9" t="str">
         <f t="array" ref="F61">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B61,C61),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-II</v>
       </c>
       <c r="G61" s="9" t="str">
         <f t="array" ref="G61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H61" s="9" t="str">
-        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I61" s="9" t="str">
         <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5074,12 +5078,12 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
-        <v>14.104461709000001</v>
-      </c>
-      <c r="C62" s="9">
-        <v>14.104461710000001</v>
-      </c>
-      <c r="D62" s="23" t="str">
+        <v>15.54</v>
+      </c>
+      <c r="C62" s="12">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="D62" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -5093,11 +5097,11 @@
       </c>
       <c r="G62" s="9" t="str">
         <f t="array" ref="G62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H62" s="9" t="str">
-        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I62" s="9" t="str">
         <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5118,12 +5122,12 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
-        <v>14.104461710000001</v>
-      </c>
-      <c r="C63" s="9">
-        <v>14.19</v>
-      </c>
-      <c r="D63" s="23" t="str">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C63" s="12">
+        <v>16.59</v>
+      </c>
+      <c r="D63" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -5140,8 +5144,8 @@
         <v>+II</v>
       </c>
       <c r="H63" s="9" t="str">
-        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I63" s="9" t="str">
         <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5162,12 +5166,12 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
-        <v>14.19</v>
-      </c>
-      <c r="C64" s="9">
-        <v>14.49</v>
-      </c>
-      <c r="D64" s="23" t="str">
+        <v>16.59</v>
+      </c>
+      <c r="C64" s="12">
+        <v>16.652344551000002</v>
+      </c>
+      <c r="D64" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -5184,8 +5188,8 @@
         <v>+II</v>
       </c>
       <c r="H64" s="9" t="str">
-        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I64" s="9" t="str">
         <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5206,12 +5210,12 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
-        <v>14.49</v>
-      </c>
-      <c r="C65" s="9">
-        <v>15.02</v>
-      </c>
-      <c r="D65" s="23" t="str">
+        <v>16.652344551000002</v>
+      </c>
+      <c r="C65" s="12">
+        <v>16.656083170000002</v>
+      </c>
+      <c r="D65" s="12" t="str">
         <f t="shared" si="2"/>
         <v>-II</v>
       </c>
@@ -5225,11 +5229,11 @@
       </c>
       <c r="G65" s="9" t="str">
         <f t="array" ref="G65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I65" s="9" t="str">
         <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5250,30 +5254,30 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
-        <v>15.02</v>
-      </c>
-      <c r="C66" s="9">
-        <v>15.54</v>
-      </c>
-      <c r="D66" s="23" t="str">
+        <v>16.656083170000002</v>
+      </c>
+      <c r="C66" s="12">
+        <v>17.11</v>
+      </c>
+      <c r="D66" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E66" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F66" s="9" t="str">
         <f t="array" ref="F66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="array" ref="G66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I66" s="9" t="str">
         <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5294,30 +5298,30 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
-        <v>15.54</v>
-      </c>
-      <c r="C67" s="9">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="D67" s="23" t="str">
+        <v>17.11</v>
+      </c>
+      <c r="C67" s="12">
+        <v>17.155520158000002</v>
+      </c>
+      <c r="D67" s="12" t="str">
         <f t="shared" ref="D67:D98" si="4">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E67" s="23" t="str">
         <f t="shared" ref="E67:E98" si="5">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F67" s="9" t="str">
         <f t="array" ref="F67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="array" ref="G67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H67" s="9" t="str">
-        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I67" s="9" t="str">
         <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5338,30 +5342,30 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="C68" s="9">
-        <v>16.59</v>
-      </c>
-      <c r="D68" s="23" t="str">
+        <v>17.155520158000002</v>
+      </c>
+      <c r="C68" s="12">
+        <v>17.71</v>
+      </c>
+      <c r="D68" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E68" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F68" s="9" t="str">
         <f t="array" ref="F68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="array" ref="G68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H68" s="9" t="str">
-        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5382,30 +5386,30 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
-        <v>16.59</v>
-      </c>
-      <c r="C69" s="9">
-        <v>16.652344551000002</v>
-      </c>
-      <c r="D69" s="23" t="str">
+        <v>17.71</v>
+      </c>
+      <c r="C69" s="12">
+        <v>17.802401842000002</v>
+      </c>
+      <c r="D69" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E69" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F69" s="9" t="str">
         <f t="array" ref="F69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="array" ref="G69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="H69" s="9" t="str">
-        <f t="array" ref="H69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H69">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I69" s="9" t="str">
         <f t="array" ref="I69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5426,30 +5430,30 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
-        <v>16.652344551000002</v>
-      </c>
-      <c r="C70" s="9">
-        <v>16.656083170000002</v>
-      </c>
-      <c r="D70" s="23" t="str">
+        <v>17.802401842000002</v>
+      </c>
+      <c r="C70" s="12">
+        <v>17.802979463</v>
+      </c>
+      <c r="D70" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="E70" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="F70" s="9" t="str">
         <f t="array" ref="F70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="G70" s="9" t="str">
         <f t="array" ref="G70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H70" s="9" t="str">
-        <f t="array" ref="H70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H70">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I70" s="9" t="str">
         <f t="array" ref="I70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5470,30 +5474,30 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
-        <v>16.656083170000002</v>
-      </c>
-      <c r="C71" s="9">
-        <v>17.11</v>
-      </c>
-      <c r="D71" s="23" t="str">
+        <v>17.802979463</v>
+      </c>
+      <c r="C71" s="12">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="D71" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="E71" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="F71" s="9" t="str">
         <f t="array" ref="F71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="G71" s="9" t="str">
         <f t="array" ref="G71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H71" s="9" t="str">
-        <f t="array" ref="H71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H71">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I71" s="9" t="str">
         <f t="array" ref="I71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5514,30 +5518,30 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
-        <v>17.11</v>
-      </c>
-      <c r="C72" s="9">
-        <v>17.155520158000002</v>
-      </c>
-      <c r="D72" s="23" t="str">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="C72" s="12">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D72" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="E72" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="F72" s="9" t="str">
         <f t="array" ref="F72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="G72" s="9" t="str">
         <f t="array" ref="G72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H72" s="9" t="str">
-        <f t="array" ref="H72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H72">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I72" s="9" t="str">
         <f t="array" ref="I72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5558,30 +5562,30 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
-        <v>17.155520158000002</v>
-      </c>
-      <c r="C73" s="9">
-        <v>17.71</v>
-      </c>
-      <c r="D73" s="23" t="str">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C73" s="12">
+        <v>17.91</v>
+      </c>
+      <c r="D73" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="E73" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="F73" s="9" t="str">
         <f t="array" ref="F73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="G73" s="9" t="str">
         <f t="array" ref="G73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H73" s="9" t="str">
-        <f t="array" ref="H73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H73">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I73" s="9" t="str">
         <f t="array" ref="I73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5602,30 +5606,30 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
-        <v>17.71</v>
-      </c>
-      <c r="C74" s="9">
-        <v>17.802401842000002</v>
-      </c>
-      <c r="D74" s="23" t="str">
+        <v>17.91</v>
+      </c>
+      <c r="C74" s="12">
+        <v>18.29</v>
+      </c>
+      <c r="D74" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="E74" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="F74" s="9" t="str">
         <f t="array" ref="F74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="G74" s="9" t="str">
         <f t="array" ref="G74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H74" s="9" t="str">
-        <f t="array" ref="H74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H74">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I74" s="9" t="str">
         <f t="array" ref="I74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5646,30 +5650,30 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
-        <v>17.802401842000002</v>
-      </c>
-      <c r="C75" s="9">
-        <v>17.802979463</v>
-      </c>
-      <c r="D75" s="23" t="str">
+        <v>18.29</v>
+      </c>
+      <c r="C75" s="12">
+        <v>18.48</v>
+      </c>
+      <c r="D75" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="E75" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="F75" s="9" t="str">
         <f t="array" ref="F75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+0</v>
+        <v>-III</v>
       </c>
       <c r="G75" s="9" t="str">
         <f t="array" ref="G75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H75" s="9" t="str">
-        <f t="array" ref="H75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H75">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I75" s="9" t="str">
         <f t="array" ref="I75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5690,12 +5694,12 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
-        <v>17.802979463</v>
-      </c>
-      <c r="C76" s="9">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="D76" s="23" t="str">
+        <v>18.48</v>
+      </c>
+      <c r="C76" s="12">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="D76" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-III</v>
       </c>
@@ -5712,8 +5716,8 @@
         <v>+III</v>
       </c>
       <c r="H76" s="9" t="str">
-        <f t="array" ref="H76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H76">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I76" s="9" t="str">
         <f t="array" ref="I76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5734,12 +5738,12 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="C77" s="9">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D77" s="23" t="str">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="C77" s="12">
+        <v>18.57818717</v>
+      </c>
+      <c r="D77" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-III</v>
       </c>
@@ -5756,8 +5760,8 @@
         <v>+III</v>
       </c>
       <c r="H77" s="9" t="str">
-        <f t="array" ref="H77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H77">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I77" s="9" t="str">
         <f t="array" ref="I77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5778,12 +5782,12 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="C78" s="9">
-        <v>17.91</v>
-      </c>
-      <c r="D78" s="23" t="str">
+        <v>18.57818717</v>
+      </c>
+      <c r="C78" s="12">
+        <v>18.588187170000001</v>
+      </c>
+      <c r="D78" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-III</v>
       </c>
@@ -5800,8 +5804,8 @@
         <v>+III</v>
       </c>
       <c r="H78" s="9" t="str">
-        <f t="array" ref="H78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H78">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I78" s="9" t="str">
         <f t="array" ref="I78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5809,7 +5813,7 @@
       </c>
       <c r="J78" s="9" t="str">
         <f t="array" ref="J78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="K78" s="9" t="str">
         <f t="array" ref="K78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -5822,12 +5826,12 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
-        <v>17.91</v>
-      </c>
-      <c r="C79" s="9">
-        <v>18.29</v>
-      </c>
-      <c r="D79" s="23" t="str">
+        <v>18.588187170000001</v>
+      </c>
+      <c r="C79" s="12">
+        <v>18.605671771000001</v>
+      </c>
+      <c r="D79" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-III</v>
       </c>
@@ -5844,8 +5848,8 @@
         <v>+III</v>
       </c>
       <c r="H79" s="9" t="str">
-        <f t="array" ref="H79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H79">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I79" s="9" t="str">
         <f t="array" ref="I79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5866,30 +5870,30 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
-        <v>18.29</v>
-      </c>
-      <c r="C80" s="9">
-        <v>18.48</v>
-      </c>
-      <c r="D80" s="23" t="str">
+        <v>18.605671771000001</v>
+      </c>
+      <c r="C80" s="12">
+        <v>18.61409317</v>
+      </c>
+      <c r="D80" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="E80" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="F80" s="9" t="str">
         <f t="array" ref="F80">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B80,C80),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="G80" s="9" t="str">
         <f t="array" ref="G80">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B80,C80),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H80" s="9" t="str">
-        <f t="array" ref="H80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H80">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I80" s="9" t="str">
         <f t="array" ref="I80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5910,30 +5914,30 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
-        <v>18.48</v>
-      </c>
-      <c r="C81" s="9">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="D81" s="23" t="str">
+        <v>18.61409317</v>
+      </c>
+      <c r="C81" s="12">
+        <v>18.624093169999998</v>
+      </c>
+      <c r="D81" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-III</v>
+        <v>+II</v>
       </c>
       <c r="E81" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-III</v>
+        <v>+II</v>
       </c>
       <c r="F81" s="9" t="str">
         <f t="array" ref="F81">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B81,C81),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="G81" s="9" t="str">
         <f t="array" ref="G81">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B81,C81),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H81" s="9" t="str">
-        <f t="array" ref="H81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H81">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I81" s="9" t="str">
         <f t="array" ref="I81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5941,43 +5945,43 @@
       </c>
       <c r="J81" s="9" t="str">
         <f t="array" ref="J81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="K81" s="9" t="str">
         <f t="array" ref="K81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+II</v>
       </c>
       <c r="L81" s="12" t="str">
         <f t="array" ref="L81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+III</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="C82" s="9">
-        <v>18.57818717</v>
-      </c>
-      <c r="D82" s="23" t="str">
+        <v>18.624093169999998</v>
+      </c>
+      <c r="C82" s="12">
+        <v>18.64</v>
+      </c>
+      <c r="D82" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="E82" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="F82" s="9" t="str">
         <f t="array" ref="F82">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B82,C82),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="G82" s="9" t="str">
         <f t="array" ref="G82">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B82,C82),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H82" s="9" t="str">
-        <f t="array" ref="H82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H82">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I82" s="9" t="str">
         <f t="array" ref="I82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5998,30 +6002,30 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
-        <v>18.57818717</v>
-      </c>
-      <c r="C83" s="9">
-        <v>18.588187170000001</v>
-      </c>
-      <c r="D83" s="23" t="str">
+        <v>18.64</v>
+      </c>
+      <c r="C83" s="12">
+        <v>18.66</v>
+      </c>
+      <c r="D83" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="E83" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="F83" s="9" t="str">
         <f t="array" ref="F83">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B83,C83),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="G83" s="9" t="str">
         <f t="array" ref="G83">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B83,C83),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H83" s="9" t="str">
-        <f t="array" ref="H83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H83">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I83" s="9" t="str">
         <f t="array" ref="I83">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B83,C83),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="J83" s="9" t="str">
         <f t="array" ref="J83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K83" s="9" t="str">
         <f t="array" ref="K83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -6042,30 +6046,30 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
-        <v>18.588187170000001</v>
-      </c>
-      <c r="C84" s="9">
-        <v>18.605671771000001</v>
-      </c>
-      <c r="D84" s="23" t="str">
+        <v>18.66</v>
+      </c>
+      <c r="C84" s="12">
+        <v>18.75</v>
+      </c>
+      <c r="D84" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="E84" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="F84" s="9" t="str">
         <f t="array" ref="F84">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B84,C84),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <v>+III</v>
       </c>
       <c r="G84" s="9" t="str">
         <f t="array" ref="G84">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B84,C84),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H84" s="9" t="str">
-        <f t="array" ref="H84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H84">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I84" s="9" t="str">
         <f t="array" ref="I84">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B84,C84),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6086,18 +6090,18 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
-        <v>18.605671771000001</v>
-      </c>
-      <c r="C85" s="9">
-        <v>18.605671772000001</v>
-      </c>
-      <c r="D85" s="23" t="str">
+        <v>18.75</v>
+      </c>
+      <c r="C85" s="12">
+        <v>19.070850830000001</v>
+      </c>
+      <c r="D85" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E85" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F85" s="9" t="str">
         <f t="array" ref="F85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6108,8 +6112,8 @@
         <v>+III</v>
       </c>
       <c r="H85" s="9" t="str">
-        <f t="array" ref="H85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H85">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I85" s="9" t="str">
         <f t="array" ref="I85">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B85,C85),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6130,18 +6134,18 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
-        <v>18.605671772000001</v>
-      </c>
-      <c r="C86" s="9">
-        <v>18.61409317</v>
-      </c>
-      <c r="D86" s="23" t="str">
+        <v>19.070850830000001</v>
+      </c>
+      <c r="C86" s="12">
+        <v>19.080850829999999</v>
+      </c>
+      <c r="D86" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E86" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="F86" s="9" t="str">
         <f t="array" ref="F86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6152,8 +6156,8 @@
         <v>+III</v>
       </c>
       <c r="H86" s="9" t="str">
-        <f t="array" ref="H86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H86">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I86" s="9" t="str">
         <f t="array" ref="I86">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B86,C86),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6161,11 +6165,11 @@
       </c>
       <c r="J86" s="9" t="str">
         <f t="array" ref="J86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+I</v>
       </c>
       <c r="K86" s="9" t="str">
         <f t="array" ref="K86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+II</v>
       </c>
       <c r="L86" s="12" t="str">
         <f t="array" ref="L86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -6174,18 +6178,18 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
-        <v>18.61409317</v>
-      </c>
-      <c r="C87" s="9">
-        <v>18.624093169999998</v>
-      </c>
-      <c r="D87" s="23" t="str">
+        <v>19.080850829999999</v>
+      </c>
+      <c r="C87" s="12">
+        <v>19.13233735</v>
+      </c>
+      <c r="D87" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E87" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F87" s="9" t="str">
         <f t="array" ref="F87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6196,8 +6200,8 @@
         <v>+III</v>
       </c>
       <c r="H87" s="9" t="str">
-        <f t="array" ref="H87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H87">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I87" s="9" t="str">
         <f t="array" ref="I87">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B87,C87),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6205,31 +6209,31 @@
       </c>
       <c r="J87" s="9" t="str">
         <f t="array" ref="J87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K87" s="9" t="str">
         <f t="array" ref="K87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>NR</v>
       </c>
       <c r="L87" s="12" t="str">
         <f t="array" ref="L87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8">
-        <v>18.624093169999998</v>
-      </c>
-      <c r="C88" s="9">
-        <v>18.64</v>
-      </c>
-      <c r="D88" s="23" t="str">
+        <v>19.13233735</v>
+      </c>
+      <c r="C88" s="12">
+        <v>19.142337349999998</v>
+      </c>
+      <c r="D88" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E88" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F88" s="9" t="str">
         <f t="array" ref="F88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6240,8 +6244,8 @@
         <v>+III</v>
       </c>
       <c r="H88" s="9" t="str">
-        <f t="array" ref="H88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H88">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I88" s="9" t="str">
         <f t="array" ref="I88">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B88,C88),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6249,7 +6253,7 @@
       </c>
       <c r="J88" s="9" t="str">
         <f t="array" ref="J88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="K88" s="9" t="str">
         <f t="array" ref="K88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -6262,18 +6266,18 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
-        <v>18.64</v>
-      </c>
-      <c r="C89" s="9">
-        <v>18.66</v>
-      </c>
-      <c r="D89" s="23" t="str">
+        <v>19.142337349999998</v>
+      </c>
+      <c r="C89" s="12">
+        <v>19.574514854</v>
+      </c>
+      <c r="D89" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E89" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F89" s="9" t="str">
         <f t="array" ref="F89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6284,8 +6288,8 @@
         <v>+III</v>
       </c>
       <c r="H89" s="9" t="str">
-        <f t="array" ref="H89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H89">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I89" s="9" t="str">
         <f t="array" ref="I89">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B89,C89),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6306,18 +6310,18 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
-        <v>18.66</v>
-      </c>
-      <c r="C90" s="9">
-        <v>18.75</v>
-      </c>
-      <c r="D90" s="23" t="str">
+        <v>19.574514854</v>
+      </c>
+      <c r="C90" s="12">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="D90" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E90" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F90" s="9" t="str">
         <f t="array" ref="F90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6328,8 +6332,8 @@
         <v>+III</v>
       </c>
       <c r="H90" s="9" t="str">
-        <f t="array" ref="H90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H90">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>NR</v>
       </c>
       <c r="I90" s="9" t="str">
         <f t="array" ref="I90">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B90,C90),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6350,18 +6354,18 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
-        <v>18.75</v>
-      </c>
-      <c r="C91" s="9">
-        <v>19.070850830000001</v>
-      </c>
-      <c r="D91" s="23" t="str">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="C91" s="12">
+        <v>19.69841048</v>
+      </c>
+      <c r="D91" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E91" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F91" s="9" t="str">
         <f t="array" ref="F91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6372,8 +6376,8 @@
         <v>+III</v>
       </c>
       <c r="H91" s="9" t="str">
-        <f t="array" ref="H91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H91">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I91" s="9" t="str">
         <f t="array" ref="I91">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B91,C91),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6394,18 +6398,18 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
-        <v>19.070850830000001</v>
-      </c>
-      <c r="C92" s="9">
-        <v>19.080850829999999</v>
-      </c>
-      <c r="D92" s="23" t="str">
+        <v>19.69841048</v>
+      </c>
+      <c r="C92" s="12">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="D92" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+I</v>
+        <v>+III</v>
       </c>
       <c r="E92" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+I</v>
+        <v>+III</v>
       </c>
       <c r="F92" s="9" t="str">
         <f t="array" ref="F92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6416,8 +6420,8 @@
         <v>+III</v>
       </c>
       <c r="H92" s="9" t="str">
-        <f t="array" ref="H92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H92">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I92" s="9" t="str">
         <f t="array" ref="I92">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B92,C92),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6425,11 +6429,11 @@
       </c>
       <c r="J92" s="9" t="str">
         <f t="array" ref="J92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>NR</v>
       </c>
       <c r="K92" s="9" t="str">
         <f t="array" ref="K92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>NR</v>
       </c>
       <c r="L92" s="12" t="str">
         <f t="array" ref="L92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -6438,18 +6442,18 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
-        <v>19.080850829999999</v>
-      </c>
-      <c r="C93" s="9">
-        <v>19.13233735</v>
-      </c>
-      <c r="D93" s="23" t="str">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C93" s="12">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D93" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E93" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F93" s="9" t="str">
         <f t="array" ref="F93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6460,8 +6464,8 @@
         <v>+III</v>
       </c>
       <c r="H93" s="9" t="str">
-        <f t="array" ref="H93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H93">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I93" s="9" t="str">
         <f t="array" ref="I93">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B93,C93),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6482,18 +6486,18 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
-        <v>19.13233735</v>
-      </c>
-      <c r="C94" s="9">
-        <v>19.142337349999998</v>
-      </c>
-      <c r="D94" s="23" t="str">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C94" s="12">
+        <v>20.352428100000001</v>
+      </c>
+      <c r="D94" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E94" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F94" s="9" t="str">
         <f t="array" ref="F94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6504,8 +6508,8 @@
         <v>+III</v>
       </c>
       <c r="H94" s="9" t="str">
-        <f t="array" ref="H94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H94">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I94" s="9" t="str">
         <f t="array" ref="I94">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B94,C94),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="J94" s="9" t="str">
         <f t="array" ref="J94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K94" s="9" t="str">
         <f t="array" ref="K94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -6526,18 +6530,18 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8">
-        <v>19.142337349999998</v>
-      </c>
-      <c r="C95" s="9">
-        <v>19.574514854</v>
-      </c>
-      <c r="D95" s="23" t="str">
+        <v>20.352428100000001</v>
+      </c>
+      <c r="C95" s="12">
+        <v>20.362428099999999</v>
+      </c>
+      <c r="D95" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E95" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F95" s="9" t="str">
         <f t="array" ref="F95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6548,8 +6552,8 @@
         <v>+III</v>
       </c>
       <c r="H95" s="9" t="str">
-        <f t="array" ref="H95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H95">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I95" s="9" t="str">
         <f t="array" ref="I95">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B95,C95),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6557,7 +6561,7 @@
       </c>
       <c r="J95" s="9" t="str">
         <f t="array" ref="J95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
+        <v>+III</v>
       </c>
       <c r="K95" s="9" t="str">
         <f t="array" ref="K95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -6570,18 +6574,18 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="8">
-        <v>19.574514854</v>
-      </c>
-      <c r="C96" s="9">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="D96" s="23" t="str">
+        <v>20.362428099999999</v>
+      </c>
+      <c r="C96" s="12">
+        <v>20.49</v>
+      </c>
+      <c r="D96" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E96" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F96" s="9" t="str">
         <f t="array" ref="F96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6592,8 +6596,8 @@
         <v>+III</v>
       </c>
       <c r="H96" s="9" t="str">
-        <f t="array" ref="H96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H96">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I96" s="9" t="str">
         <f t="array" ref="I96">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B96,C96),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6614,18 +6618,18 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="C97" s="9">
-        <v>19.69841048</v>
-      </c>
-      <c r="D97" s="23" t="str">
+        <v>20.49</v>
+      </c>
+      <c r="C97" s="12">
+        <v>20.64</v>
+      </c>
+      <c r="D97" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E97" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F97" s="9" t="str">
         <f t="array" ref="F97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6636,8 +6640,8 @@
         <v>+III</v>
       </c>
       <c r="H97" s="9" t="str">
-        <f t="array" ref="H97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H97">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I97" s="9" t="str">
         <f t="array" ref="I97">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B97,C97),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6658,18 +6662,18 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
-        <v>19.69841048</v>
-      </c>
-      <c r="C98" s="9">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="D98" s="23" t="str">
+        <v>20.64</v>
+      </c>
+      <c r="C98" s="12">
+        <v>20.69</v>
+      </c>
+      <c r="D98" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="E98" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>+II</v>
+        <v>+III</v>
       </c>
       <c r="F98" s="9" t="str">
         <f t="array" ref="F98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6680,8 +6684,8 @@
         <v>+III</v>
       </c>
       <c r="H98" s="9" t="str">
-        <f t="array" ref="H98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H98">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I98" s="9" t="str">
         <f t="array" ref="I98">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B98,C98),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6702,18 +6706,18 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="C99" s="9">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="D99" s="23" t="str">
-        <f t="shared" ref="D99:D106" si="6">IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>+II</v>
+        <v>20.69</v>
+      </c>
+      <c r="C99" s="12">
+        <v>20.76</v>
+      </c>
+      <c r="D99" s="12" t="str">
+        <f t="shared" ref="D99" si="6">IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
+        <v>+III</v>
       </c>
       <c r="E99" s="23" t="str">
-        <f t="shared" ref="E99:E106" si="7">IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>+II</v>
+        <f t="shared" ref="E99" si="7">IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
+        <v>+III</v>
       </c>
       <c r="F99" s="9" t="str">
         <f t="array" ref="F99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6724,8 +6728,8 @@
         <v>+III</v>
       </c>
       <c r="H99" s="9" t="str">
-        <f t="array" ref="H99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H99">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I99" s="9" t="str">
         <f t="array" ref="I99">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B99,C99),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6746,18 +6750,18 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
-        <v>19.989999999999998</v>
+        <v>20.76</v>
       </c>
       <c r="C100" s="9">
-        <v>20.352428100000001</v>
-      </c>
-      <c r="D100" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
+        <v>20.93</v>
+      </c>
+      <c r="D100" s="12" t="str">
+        <f t="shared" ref="D100" si="8">IF(COUNTIF(F100:L100,"D")&gt;0,"D",IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR")))))))))</f>
+        <v>+III</v>
       </c>
       <c r="E100" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
+        <f t="shared" ref="E100" si="9">IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR"))))))))</f>
+        <v>+III</v>
       </c>
       <c r="F100" s="9" t="str">
         <f t="array" ref="F100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6768,8 +6772,8 @@
         <v>+III</v>
       </c>
       <c r="H100" s="9" t="str">
-        <f t="array" ref="H100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H100">INDEX(GEKB!$K$11:$K$100,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$100&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$100)),GEKB!$D$11:$D$100),1))</f>
+        <v>+III</v>
       </c>
       <c r="I100" s="9" t="str">
         <f t="array" ref="I100">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B100,C100),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6789,268 +6793,82 @@
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
-        <v>20.352428100000001</v>
-      </c>
-      <c r="C101" s="9">
-        <v>20.362428099999999</v>
-      </c>
-      <c r="D101" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E101" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F101" s="9" t="str">
-        <f t="array" ref="F101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G101" s="9" t="str">
-        <f t="array" ref="G101">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B101,C101),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H101" s="9" t="str">
-        <f t="array" ref="H101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I101" s="9" t="str">
-        <f t="array" ref="I101">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B101,C101),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J101" s="9" t="str">
-        <f t="array" ref="J101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K101" s="9" t="str">
-        <f t="array" ref="K101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L101" s="12" t="str">
-        <f t="array" ref="L101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="12"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
-        <v>20.362428099999999</v>
-      </c>
-      <c r="C102" s="9">
-        <v>20.49</v>
-      </c>
-      <c r="D102" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E102" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F102" s="9" t="str">
-        <f t="array" ref="F102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G102" s="9" t="str">
-        <f t="array" ref="G102">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B102,C102),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H102" s="9" t="str">
-        <f t="array" ref="H102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I102" s="9" t="str">
-        <f t="array" ref="I102">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B102,C102),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J102" s="9" t="str">
-        <f t="array" ref="J102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="K102" s="9" t="str">
-        <f t="array" ref="K102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L102" s="12" t="str">
-        <f t="array" ref="L102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="12"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
-        <v>20.49</v>
-      </c>
-      <c r="C103" s="9">
-        <v>20.64</v>
-      </c>
-      <c r="D103" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E103" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F103" s="9" t="str">
-        <f t="array" ref="F103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G103" s="9" t="str">
-        <f t="array" ref="G103">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B103,C103),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H103" s="9" t="str">
-        <f t="array" ref="H103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I103" s="9" t="str">
-        <f t="array" ref="I103">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B103,C103),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J103" s="9" t="str">
-        <f t="array" ref="J103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="K103" s="9" t="str">
-        <f t="array" ref="K103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L103" s="12" t="str">
-        <f t="array" ref="L103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="12"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
-        <v>20.64</v>
-      </c>
-      <c r="C104" s="9">
-        <v>20.69</v>
-      </c>
-      <c r="D104" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E104" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F104" s="9" t="str">
-        <f t="array" ref="F104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G104" s="9" t="str">
-        <f t="array" ref="G104">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B104,C104),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H104" s="9" t="str">
-        <f t="array" ref="H104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I104" s="9" t="str">
-        <f t="array" ref="I104">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B104,C104),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J104" s="9" t="str">
-        <f t="array" ref="J104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="K104" s="9" t="str">
-        <f t="array" ref="K104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L104" s="12" t="str">
-        <f t="array" ref="L104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="12"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="8">
-        <v>20.69</v>
-      </c>
-      <c r="C105" s="9">
-        <v>20.76</v>
-      </c>
-      <c r="D105" s="23" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E105" s="23" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F105" s="9" t="str">
-        <f t="array" ref="F105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G105" s="9" t="str">
-        <f t="array" ref="G105">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B105,C105),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H105" s="9" t="str">
-        <f t="array" ref="H105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I105" s="9" t="str">
-        <f t="array" ref="I105">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B105,C105),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J105" s="9" t="str">
-        <f t="array" ref="J105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="K105" s="9" t="str">
-        <f t="array" ref="K105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L105" s="12" t="str">
-        <f t="array" ref="L105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="12"/>
     </row>
     <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="13">
-        <v>20.76</v>
-      </c>
-      <c r="C106" s="14">
-        <v>20.93</v>
-      </c>
-      <c r="D106" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v>+II</v>
-      </c>
-      <c r="E106" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="F106" s="14" t="str">
-        <f t="array" ref="F106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G106" s="14" t="str">
-        <f t="array" ref="G106">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B106,C106),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H106" s="14" t="str">
-        <f t="array" ref="H106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="I106" s="14" t="str">
-        <f t="array" ref="I106">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B106,C106),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J106" s="14" t="str">
-        <f t="array" ref="J106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="K106" s="14" t="str">
-        <f t="array" ref="K106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="L106" s="17" t="str">
-        <f t="array" ref="L106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="17"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
@@ -7141,9 +6959,6 @@
       <c r="C135" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C136">
-    <sortCondition ref="B2:B136"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7154,7 +6969,7 @@
   <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10759,8 +10574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 12-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D2AB8-A2A2-4CF2-BB57-D9BD80419B16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D220E3D-D4DE-4D29-B9AE-64B7EF9BDB80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="183">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -2125,8 +2125,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,20 +2141,20 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
-        <v>6.0685267360869544E-2</v>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>A+</v>
+        <v>D</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>0</v>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;=D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>0.03</v>
       </c>
       <c r="H2">
-        <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8,0),1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2162,20 +2162,20 @@
         <v>83</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
-        <v>6.0685267360869544E-2</v>
+        <f>1-PRODUCT(H7:H14)</f>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>A+</v>
+        <v>D</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>0</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;=D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>0.03</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2237,11 +2237,11 @@
       </c>
       <c r="E8" s="49"/>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>0.99999625083543664</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>0.99999625083543664</v>
       </c>
     </row>
@@ -2334,17 +2334,25 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="31">
+        <f>BSKW!C5</f>
+        <v>1.2551587022663145E-6</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>1.2551587022663145E-6</v>
+      </c>
       <c r="E13" s="49"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999874484129769</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999874484129769</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2352,14 +2360,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="51"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,7 +7204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -17299,7 +17301,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
